--- a/Anki/Grab_words_from_excel/Słówka　Genki.xlsx
+++ b/Anki/Grab_words_from_excel/Słówka　Genki.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pejot.sharepoint.com/sites/2324L_wis_JAP4lek_111/Shared Documents/General/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1644" documentId="11_48C31F4975A4F90789B985203F3628FF6D433663" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F21FF4-C076-4530-89CD-966848735B84}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文法" sheetId="9" r:id="rId1"/>
@@ -26,7 +20,7 @@
     <sheet name="20課" sheetId="11" r:id="rId11"/>
     <sheet name="Zestawienie" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="1609">
   <si>
     <t>第1課</t>
   </si>
@@ -5174,18 +5168,29 @@
   <si>
     <t>dōmo</t>
   </si>
+  <si>
+    <t xml:space="preserve">czasopismo kolorowe </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5325,40 +5330,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5383,26 +5389,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16830A8D-8254-4712-8F2A-B3BE30F6A367}" name="Tabela2" displayName="Tabela2" ref="B1:I512" totalsRowShown="0">
-  <autoFilter ref="B1:I512" xr:uid="{6759ACC4-E287-4422-9DC2-8E742EE8EB57}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B1:I512" totalsRowShown="0">
+  <autoFilter ref="B1:I512"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1561381E-9C68-4D06-BD0C-632765154BC2}" name="Japoński"/>
-    <tableColumn id="2" xr3:uid="{DC2DB3D3-61EE-45BF-9F98-10A413964371}" name="Kanji"/>
-    <tableColumn id="3" xr3:uid="{D3367BE4-3F1A-49F7-87F2-8383FDA2C579}" name="Polski"/>
-    <tableColumn id="4" xr3:uid="{BC6983DA-1980-40DE-8383-CF652A21A5EA}" name="Partykuła"/>
-    <tableColumn id="5" xr3:uid="{B0C59344-336F-425E-A308-06A142EE3D30}" name="Lekcja"/>
-    <tableColumn id="6" xr3:uid="{B291B37C-179C-4150-A587-B3F2536D9E09}" name="Typ"/>
-    <tableColumn id="7" xr3:uid="{983C0819-4924-49FA-8DE4-50390E1B53AD}" name="Kategoria"/>
-    <tableColumn id="8" xr3:uid="{4F29FFD7-6FEE-4B36-88A1-EED0FAB00259}" name="Rodzaj"/>
+    <tableColumn id="1" name="Japoński"/>
+    <tableColumn id="2" name="Kanji"/>
+    <tableColumn id="3" name="Polski"/>
+    <tableColumn id="4" name="Partykuła"/>
+    <tableColumn id="5" name="Lekcja"/>
+    <tableColumn id="6" name="Typ"/>
+    <tableColumn id="7" name="Kategoria"/>
+    <tableColumn id="8" name="Rodzaj"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5440,7 +5446,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5512,7 +5518,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5685,7 +5691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E65C22-B543-41AF-ABC8-6FBC8A086A40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -5969,7 +5975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E31B344-DB04-4A87-9853-0B96F796829A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5984,21 +5990,21 @@
     <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>1352</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -6173,12 +6179,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
@@ -6199,12 +6205,12 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
@@ -6261,12 +6267,12 @@
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2"/>
@@ -6287,12 +6293,12 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
@@ -6325,12 +6331,12 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2"/>
@@ -6395,7 +6401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0127B476-35AF-4314-96A0-9DA877739DA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -6410,21 +6416,21 @@
     <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>1370</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -6657,12 +6663,12 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>1425</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
@@ -6689,12 +6695,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
@@ -6835,12 +6841,12 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
@@ -6895,12 +6901,12 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
@@ -6941,12 +6947,12 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
@@ -7104,7 +7110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09A2388-20AD-4B8E-871C-FAC1C9FA4ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7153,7 +7159,7 @@
     <row r="2" spans="1:9">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.67776512871255179</v>
+        <v>9.2207562331679482E-2</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -7168,7 +7174,7 @@
     <row r="3" spans="1:9">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34168756896286023</v>
+        <v>0.86707131984276176</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -7186,7 +7192,7 @@
     <row r="4" spans="1:9">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43599071343811302</v>
+        <v>0.36982478530781326</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -7204,7 +7210,7 @@
     <row r="5" spans="1:9">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30122011620266964</v>
+        <v>0.15598566244865408</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -7219,7 +7225,7 @@
     <row r="6" spans="1:9">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30997527059746521</v>
+        <v>8.7811082966392284E-2</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -7237,7 +7243,7 @@
     <row r="7" spans="1:9">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90027193657612048</v>
+        <v>0.48648282749408667</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -7255,7 +7261,7 @@
     <row r="8" spans="1:9">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32035012727649859</v>
+        <v>0.38637568279437817</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -7273,7 +7279,7 @@
     <row r="9" spans="1:9">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48831498151212127</v>
+        <v>4.4485454695654791E-2</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -7291,7 +7297,7 @@
     <row r="10" spans="1:9">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9633430800169234E-2</v>
+        <v>0.74738596976367533</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -7309,7 +7315,7 @@
     <row r="11" spans="1:9">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16978042660650927</v>
+        <v>0.69078702877593201</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -7327,7 +7333,7 @@
     <row r="12" spans="1:9">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7346232234569835</v>
+        <v>0.38387745298918052</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -7345,7 +7351,7 @@
     <row r="13" spans="1:9">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65058262959660607</v>
+        <v>0.42659098970042053</v>
       </c>
       <c r="B13" t="s">
         <v>92</v>
@@ -7363,7 +7369,7 @@
     <row r="14" spans="1:9">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0367745555358177E-2</v>
+        <v>2.8046591468805948E-2</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
@@ -7381,7 +7387,7 @@
     <row r="15" spans="1:9">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20036143989385091</v>
+        <v>0.49843415836983496</v>
       </c>
       <c r="B15" t="s">
         <v>98</v>
@@ -7399,7 +7405,7 @@
     <row r="16" spans="1:9">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39661343512366187</v>
+        <v>0.58123856500674931</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
@@ -7414,7 +7420,7 @@
     <row r="17" spans="1:6">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21393773977876562</v>
+        <v>0.57873398724048053</v>
       </c>
       <c r="B17" t="s">
         <v>104</v>
@@ -7429,7 +7435,7 @@
     <row r="18" spans="1:6">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13187892509299393</v>
+        <v>8.1785560769698451E-2</v>
       </c>
       <c r="B18" t="s">
         <v>107</v>
@@ -7447,7 +7453,7 @@
     <row r="19" spans="1:6">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55746971910581455</v>
+        <v>0.13796152773815595</v>
       </c>
       <c r="B19" t="s">
         <v>110</v>
@@ -7465,7 +7471,7 @@
     <row r="20" spans="1:6">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21282022286965563</v>
+        <v>0.24153031212757747</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
@@ -7483,7 +7489,7 @@
     <row r="21" spans="1:6">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68448465170308015</v>
+        <v>0.31161877619066991</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -7501,7 +7507,7 @@
     <row r="22" spans="1:6">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89387325069409218</v>
+        <v>0.16731825818286106</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -7519,7 +7525,7 @@
     <row r="23" spans="1:6">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46602806551095299</v>
+        <v>0.36628986145847453</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
@@ -7537,7 +7543,7 @@
     <row r="24" spans="1:6">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87031805593995604</v>
+        <v>0.89405972360547115</v>
       </c>
       <c r="B24" t="s">
         <v>125</v>
@@ -7555,7 +7561,7 @@
     <row r="25" spans="1:6">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47586422915113213</v>
+        <v>0.54462033400263543</v>
       </c>
       <c r="B25" t="s">
         <v>128</v>
@@ -7570,7 +7576,7 @@
     <row r="26" spans="1:6">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78865659787992204</v>
+        <v>0.86319019138287867</v>
       </c>
       <c r="B26" t="s">
         <v>131</v>
@@ -7588,7 +7594,7 @@
     <row r="27" spans="1:6">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77225581638454488</v>
+        <v>0.86630122695352774</v>
       </c>
       <c r="B27" t="s">
         <v>134</v>
@@ -7606,7 +7612,7 @@
     <row r="28" spans="1:6">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55966091106850635</v>
+        <v>0.50097327847492734</v>
       </c>
       <c r="B28" t="s">
         <v>137</v>
@@ -7624,7 +7630,7 @@
     <row r="29" spans="1:6">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97675697598239386</v>
+        <v>0.93907155787124674</v>
       </c>
       <c r="B29" t="s">
         <v>140</v>
@@ -7642,7 +7648,7 @@
     <row r="30" spans="1:6">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54489028845944942</v>
+        <v>0.7245904833616017</v>
       </c>
       <c r="B30" t="s">
         <v>144</v>
@@ -7660,7 +7666,7 @@
     <row r="31" spans="1:6">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35299250309923447</v>
+        <v>0.23560501831690384</v>
       </c>
       <c r="B31" t="s">
         <v>147</v>
@@ -7678,7 +7684,7 @@
     <row r="32" spans="1:6">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72361007871470417</v>
+        <v>0.75284537408461161</v>
       </c>
       <c r="B32" t="s">
         <v>150</v>
@@ -7696,7 +7702,7 @@
     <row r="33" spans="1:6">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77704223226104885</v>
+        <v>0.94324009132089237</v>
       </c>
       <c r="B33" t="s">
         <v>153</v>
@@ -7714,7 +7720,7 @@
     <row r="34" spans="1:6">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64480988644755621</v>
+        <v>0.96086596442347105</v>
       </c>
       <c r="B34" t="s">
         <v>156</v>
@@ -7732,7 +7738,7 @@
     <row r="35" spans="1:6">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40451278672550472</v>
+        <v>0.70637536696037861</v>
       </c>
       <c r="B35" t="s">
         <v>159</v>
@@ -7750,7 +7756,7 @@
     <row r="36" spans="1:6">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42437337501600625</v>
+        <v>0.71994141887376328</v>
       </c>
       <c r="B36" t="s">
         <v>162</v>
@@ -7768,7 +7774,7 @@
     <row r="37" spans="1:6">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5558211033860242</v>
+        <v>0.62379148411577101</v>
       </c>
       <c r="B37" t="s">
         <v>165</v>
@@ -7786,7 +7792,7 @@
     <row r="38" spans="1:6">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56171221353982026</v>
+        <v>0.69638217845746675</v>
       </c>
       <c r="B38" t="s">
         <v>168</v>
@@ -7804,7 +7810,7 @@
     <row r="39" spans="1:6">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94050495425446445</v>
+        <v>0.60265313564810608</v>
       </c>
       <c r="B39" t="s">
         <v>171</v>
@@ -7822,7 +7828,7 @@
     <row r="40" spans="1:6">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60440034215437521</v>
+        <v>0.79651954646327783</v>
       </c>
       <c r="B40" t="s">
         <v>174</v>
@@ -7840,7 +7846,7 @@
     <row r="41" spans="1:6">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9225857488046012E-2</v>
+        <v>6.7891973310176934E-2</v>
       </c>
       <c r="B41" t="s">
         <v>177</v>
@@ -7858,7 +7864,7 @@
     <row r="42" spans="1:6">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1762066228355006E-2</v>
+        <v>0.73401782313953978</v>
       </c>
       <c r="B42" t="s">
         <v>190</v>
@@ -7876,7 +7882,7 @@
     <row r="43" spans="1:6">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>4.696209097939319E-2</v>
+        <v>0.83998233754278129</v>
       </c>
       <c r="B43" t="s">
         <v>190</v>
@@ -7894,7 +7900,7 @@
     <row r="44" spans="1:6">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56839690975966572</v>
+        <v>0.50946444956536474</v>
       </c>
       <c r="B44" t="s">
         <v>192</v>
@@ -7912,7 +7918,7 @@
     <row r="45" spans="1:6">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77526890761553247</v>
+        <v>0.33400808019433137</v>
       </c>
       <c r="B45" t="s">
         <v>195</v>
@@ -7930,7 +7936,7 @@
     <row r="46" spans="1:6">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63970012304328505</v>
+        <v>0.89060407573713951</v>
       </c>
       <c r="B46" t="s">
         <v>198</v>
@@ -7948,7 +7954,7 @@
     <row r="47" spans="1:6">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80211228099199905</v>
+        <v>0.68524846606751177</v>
       </c>
       <c r="B47" t="s">
         <v>201</v>
@@ -7966,7 +7972,7 @@
     <row r="48" spans="1:6">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21165835263994037</v>
+        <v>8.2763231519223268E-2</v>
       </c>
       <c r="B48" t="s">
         <v>204</v>
@@ -7984,7 +7990,7 @@
     <row r="49" spans="1:6">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36893382196210001</v>
+        <v>0.82828885051011059</v>
       </c>
       <c r="B49" t="s">
         <v>207</v>
@@ -8002,7 +8008,7 @@
     <row r="50" spans="1:6">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79520634728316508</v>
+        <v>0.2890126610279854</v>
       </c>
       <c r="B50" t="s">
         <v>210</v>
@@ -8020,7 +8026,7 @@
     <row r="51" spans="1:6">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7049577571424157E-3</v>
+        <v>0.84361561967149568</v>
       </c>
       <c r="B51" t="s">
         <v>213</v>
@@ -8038,7 +8044,7 @@
     <row r="52" spans="1:6">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73555726903122298</v>
+        <v>0.4395870859390093</v>
       </c>
       <c r="B52" t="s">
         <v>216</v>
@@ -8056,7 +8062,7 @@
     <row r="53" spans="1:6">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50548839554229674</v>
+        <v>0.6173544369230346</v>
       </c>
       <c r="B53" t="s">
         <v>220</v>
@@ -8074,7 +8080,7 @@
     <row r="54" spans="1:6">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60214817461976944</v>
+        <v>0.40017271694296441</v>
       </c>
       <c r="B54" t="s">
         <v>223</v>
@@ -8092,7 +8098,7 @@
     <row r="55" spans="1:6">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69145917257254552</v>
+        <v>0.63314277468564062</v>
       </c>
       <c r="B55" t="s">
         <v>226</v>
@@ -8110,7 +8116,7 @@
     <row r="56" spans="1:6">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45046219176882396</v>
+        <v>0.85822358548505095</v>
       </c>
       <c r="B56" t="s">
         <v>229</v>
@@ -8128,7 +8134,7 @@
     <row r="57" spans="1:6">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16381728220137881</v>
+        <v>0.74420267231683512</v>
       </c>
       <c r="B57" t="s">
         <v>232</v>
@@ -8146,7 +8152,7 @@
     <row r="58" spans="1:6">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12969350590609363</v>
+        <v>0.36662784887712141</v>
       </c>
       <c r="B58" t="s">
         <v>235</v>
@@ -8164,7 +8170,7 @@
     <row r="59" spans="1:6">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84156080368693331</v>
+        <v>0.57418056843274945</v>
       </c>
       <c r="B59" t="s">
         <v>238</v>
@@ -8182,7 +8188,7 @@
     <row r="60" spans="1:6">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84660655795548589</v>
+        <v>0.35789397342077034</v>
       </c>
       <c r="B60" t="s">
         <v>241</v>
@@ -8200,7 +8206,7 @@
     <row r="61" spans="1:6">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98118916109653886</v>
+        <v>0.70788365737949066</v>
       </c>
       <c r="B61" t="s">
         <v>264</v>
@@ -8218,7 +8224,7 @@
     <row r="62" spans="1:6">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86172395443311245</v>
+        <v>0.21535875016725192</v>
       </c>
       <c r="B62" t="s">
         <v>267</v>
@@ -8236,7 +8242,7 @@
     <row r="63" spans="1:6">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52656440584680975</v>
+        <v>0.18933465771596036</v>
       </c>
       <c r="B63" t="s">
         <v>270</v>
@@ -8254,7 +8260,7 @@
     <row r="64" spans="1:6">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85809812208692415</v>
+        <v>0.4477534642554597</v>
       </c>
       <c r="B64" t="s">
         <v>273</v>
@@ -8272,7 +8278,7 @@
     <row r="65" spans="1:6">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70445651900954898</v>
+        <v>0.2132643879684466</v>
       </c>
       <c r="B65" t="s">
         <v>276</v>
@@ -8290,7 +8296,7 @@
     <row r="66" spans="1:6">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.43098757992275705</v>
+        <v>0.52249260036749823</v>
       </c>
       <c r="B66" t="s">
         <v>279</v>
@@ -8308,7 +8314,7 @@
     <row r="67" spans="1:6">
       <c r="A67">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16269426627579364</v>
+        <v>0.37785080813513461</v>
       </c>
       <c r="B67" t="s">
         <v>58</v>
@@ -8326,7 +8332,7 @@
     <row r="68" spans="1:6">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73348094412808584</v>
+        <v>0.19000050384739575</v>
       </c>
       <c r="B68" t="s">
         <v>283</v>
@@ -8344,7 +8350,7 @@
     <row r="69" spans="1:6">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33132502322604918</v>
+        <v>0.172096947757719</v>
       </c>
       <c r="B69" t="s">
         <v>286</v>
@@ -8362,7 +8368,7 @@
     <row r="70" spans="1:6">
       <c r="A70">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62117170409983824</v>
+        <v>0.17066905110533293</v>
       </c>
       <c r="B70" t="s">
         <v>289</v>
@@ -8380,7 +8386,7 @@
     <row r="71" spans="1:6">
       <c r="A71">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45415486584803322</v>
+        <v>2.4025799493781808E-2</v>
       </c>
       <c r="B71" t="s">
         <v>292</v>
@@ -8398,7 +8404,7 @@
     <row r="72" spans="1:6">
       <c r="A72">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44115578251578913</v>
+        <v>0.10805227151897112</v>
       </c>
       <c r="B72" t="s">
         <v>295</v>
@@ -8416,7 +8422,7 @@
     <row r="73" spans="1:6">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56811947641291183</v>
+        <v>6.3260741246734198E-2</v>
       </c>
       <c r="B73" t="s">
         <v>298</v>
@@ -8434,7 +8440,7 @@
     <row r="74" spans="1:6">
       <c r="A74">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83518217168740827</v>
+        <v>4.477491250507426E-2</v>
       </c>
       <c r="B74" t="s">
         <v>302</v>
@@ -8452,7 +8458,7 @@
     <row r="75" spans="1:6">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34322777910444557</v>
+        <v>0.15348393926645254</v>
       </c>
       <c r="B75" t="s">
         <v>305</v>
@@ -8470,7 +8476,7 @@
     <row r="76" spans="1:6">
       <c r="A76">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93944017100465338</v>
+        <v>0.72072160870723823</v>
       </c>
       <c r="B76" t="s">
         <v>308</v>
@@ -8488,7 +8494,7 @@
     <row r="77" spans="1:6">
       <c r="A77">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84641616089619554</v>
+        <v>0.99816593288946454</v>
       </c>
       <c r="B77" t="s">
         <v>311</v>
@@ -8506,7 +8512,7 @@
     <row r="78" spans="1:6">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77275288563997857</v>
+        <v>9.0458890861991881E-2</v>
       </c>
       <c r="B78" t="s">
         <v>314</v>
@@ -8524,7 +8530,7 @@
     <row r="79" spans="1:6">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64138918617761198</v>
+        <v>0.22463997921672829</v>
       </c>
       <c r="B79" t="s">
         <v>317</v>
@@ -8542,7 +8548,7 @@
     <row r="80" spans="1:6">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71888200060503016</v>
+        <v>9.0054159136065959E-4</v>
       </c>
       <c r="B80" t="s">
         <v>321</v>
@@ -8560,7 +8566,7 @@
     <row r="81" spans="1:6">
       <c r="A81">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27255522853137626</v>
+        <v>0.56456214713537156</v>
       </c>
       <c r="B81" t="s">
         <v>324</v>
@@ -8578,7 +8584,7 @@
     <row r="82" spans="1:6">
       <c r="A82">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57698461145559332</v>
+        <v>0.13246168112943391</v>
       </c>
       <c r="B82" t="s">
         <v>327</v>
@@ -8596,7 +8602,7 @@
     <row r="83" spans="1:6">
       <c r="A83">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33657637976289112</v>
+        <v>0.71648969881346125</v>
       </c>
       <c r="B83" t="s">
         <v>330</v>
@@ -8614,7 +8620,7 @@
     <row r="84" spans="1:6">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61424173935602666</v>
+        <v>0.49551927511093952</v>
       </c>
       <c r="B84" t="s">
         <v>333</v>
@@ -8632,7 +8638,7 @@
     <row r="85" spans="1:6">
       <c r="A85">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23154620675379867</v>
+        <v>0.83540482411907702</v>
       </c>
       <c r="B85" t="s">
         <v>336</v>
@@ -8650,7 +8656,7 @@
     <row r="86" spans="1:6">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22756531054338225</v>
+        <v>0.62349802055993075</v>
       </c>
       <c r="B86" t="s">
         <v>339</v>
@@ -8668,7 +8674,7 @@
     <row r="87" spans="1:6">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33154500667504927</v>
+        <v>0.27297256821164495</v>
       </c>
       <c r="B87" t="s">
         <v>342</v>
@@ -8686,7 +8692,7 @@
     <row r="88" spans="1:6">
       <c r="A88">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52170189911374454</v>
+        <v>0.41883176142849754</v>
       </c>
       <c r="B88" t="s">
         <v>345</v>
@@ -8704,7 +8710,7 @@
     <row r="89" spans="1:6">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37121972284457394</v>
+        <v>0.72413799838666826</v>
       </c>
       <c r="B89" t="s">
         <v>348</v>
@@ -8722,7 +8728,7 @@
     <row r="90" spans="1:6">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16488022921134804</v>
+        <v>0.26616733634045453</v>
       </c>
       <c r="B90" t="s">
         <v>351</v>
@@ -8740,7 +8746,7 @@
     <row r="91" spans="1:6">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26565379946920642</v>
+        <v>0.38253873513774728</v>
       </c>
       <c r="B91" t="s">
         <v>354</v>
@@ -8758,7 +8764,7 @@
     <row r="92" spans="1:6">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90751188397445781</v>
+        <v>0.96662404470539598</v>
       </c>
       <c r="B92" t="s">
         <v>357</v>
@@ -8776,7 +8782,7 @@
     <row r="93" spans="1:6">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9559302579571392E-2</v>
+        <v>0.27527476268216966</v>
       </c>
       <c r="B93" t="s">
         <v>360</v>
@@ -8794,7 +8800,7 @@
     <row r="94" spans="1:6">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70371493161343279</v>
+        <v>0.38220963483113002</v>
       </c>
       <c r="B94" t="s">
         <v>363</v>
@@ -8812,7 +8818,7 @@
     <row r="95" spans="1:6">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36557808230303468</v>
+        <v>0.58172300731432258</v>
       </c>
       <c r="B95" t="s">
         <v>367</v>
@@ -8830,7 +8836,7 @@
     <row r="96" spans="1:6">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74296873447930312</v>
+        <v>0.51149935792785528</v>
       </c>
       <c r="B96" t="s">
         <v>370</v>
@@ -8848,7 +8854,7 @@
     <row r="97" spans="1:6">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36390250293020354</v>
+        <v>0.3066304348210378</v>
       </c>
       <c r="B97" t="s">
         <v>373</v>
@@ -8866,7 +8872,7 @@
     <row r="98" spans="1:6">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2291047070232501E-2</v>
+        <v>0.10352185645370948</v>
       </c>
       <c r="B98" t="s">
         <v>376</v>
@@ -8884,7 +8890,7 @@
     <row r="99" spans="1:6">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73990671789263085</v>
+        <v>8.7076772594940732E-2</v>
       </c>
       <c r="B99" t="s">
         <v>379</v>
@@ -8902,7 +8908,7 @@
     <row r="100" spans="1:6">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87366409490528829</v>
+        <v>0.74279569212236329</v>
       </c>
       <c r="B100" t="s">
         <v>162</v>
@@ -8920,7 +8926,7 @@
     <row r="101" spans="1:6">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4090222370761785E-3</v>
+        <v>0.17608206849916874</v>
       </c>
       <c r="B101" t="s">
         <v>165</v>
@@ -8938,7 +8944,7 @@
     <row r="102" spans="1:6">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>0.670938015216763</v>
+        <v>0.67665930415341458</v>
       </c>
       <c r="B102" t="s">
         <v>171</v>
@@ -8956,7 +8962,7 @@
     <row r="103" spans="1:6">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83255042893818354</v>
+        <v>0.24469846052932975</v>
       </c>
       <c r="B103" t="s">
         <v>174</v>
@@ -8974,7 +8980,7 @@
     <row r="104" spans="1:6">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23286375944923376</v>
+        <v>0.36302186649072421</v>
       </c>
       <c r="B104" t="s">
         <v>168</v>
@@ -8992,7 +8998,7 @@
     <row r="105" spans="1:6">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91267332740744878</v>
+        <v>0.54348515981464984</v>
       </c>
       <c r="B105" t="s">
         <v>147</v>
@@ -9010,7 +9016,7 @@
     <row r="106" spans="1:6">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26449891374462808</v>
+        <v>0.52568625952670711</v>
       </c>
       <c r="B106" t="s">
         <v>144</v>
@@ -9028,7 +9034,7 @@
     <row r="107" spans="1:6">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29177454163745042</v>
+        <v>0.96219467217881283</v>
       </c>
       <c r="B107" t="s">
         <v>153</v>
@@ -9046,7 +9052,7 @@
     <row r="108" spans="1:6">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19181640346450868</v>
+        <v>0.53240755952075491</v>
       </c>
       <c r="B108" t="s">
         <v>159</v>
@@ -9064,7 +9070,7 @@
     <row r="109" spans="1:6">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42313422401452672</v>
+        <v>0.45783503607394249</v>
       </c>
       <c r="B109" t="s">
         <v>195</v>
@@ -9082,7 +9088,7 @@
     <row r="110" spans="1:6">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73873272466180295</v>
+        <v>0.19561013239929137</v>
       </c>
       <c r="B110" t="s">
         <v>201</v>
@@ -9100,7 +9106,7 @@
     <row r="111" spans="1:6">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>3.082915163698996E-2</v>
+        <v>0.97318343965470666</v>
       </c>
       <c r="B111" t="s">
         <v>210</v>
@@ -9118,7 +9124,7 @@
     <row r="112" spans="1:6">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50959377256623317</v>
+        <v>0.99612327322963978</v>
       </c>
       <c r="B112" t="s">
         <v>216</v>
@@ -9136,7 +9142,7 @@
     <row r="113" spans="1:6">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52154823882692825</v>
+        <v>0.46559814939302313</v>
       </c>
       <c r="B113" t="s">
         <v>391</v>
@@ -9154,7 +9160,7 @@
     <row r="114" spans="1:6">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32349660974337024</v>
+        <v>0.22009863483008141</v>
       </c>
       <c r="B114" t="s">
         <v>394</v>
@@ -9172,7 +9178,7 @@
     <row r="115" spans="1:6">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89189952629283176</v>
+        <v>0.38082205404500058</v>
       </c>
       <c r="B115" t="s">
         <v>395</v>
@@ -9190,7 +9196,7 @@
     <row r="116" spans="1:6">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4250327264788073</v>
+        <v>0.88847731437971234</v>
       </c>
       <c r="B116" t="s">
         <v>398</v>
@@ -9208,7 +9214,7 @@
     <row r="117" spans="1:6">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44466751289942197</v>
+        <v>4.7216541649630517E-2</v>
       </c>
       <c r="B117" t="s">
         <v>401</v>
@@ -9226,7 +9232,7 @@
     <row r="118" spans="1:6">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98420445786230726</v>
+        <v>0.14793033130124811</v>
       </c>
       <c r="B118" t="s">
         <v>404</v>
@@ -9244,7 +9250,7 @@
     <row r="119" spans="1:6">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35850662677411105</v>
+        <v>5.5269752034384889E-2</v>
       </c>
       <c r="B119" t="s">
         <v>408</v>
@@ -9262,7 +9268,7 @@
     <row r="120" spans="1:6">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70278555491088202</v>
+        <v>0.94411909586152354</v>
       </c>
       <c r="B120" t="s">
         <v>411</v>
@@ -9283,7 +9289,7 @@
     <row r="121" spans="1:6">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25763309007537016</v>
+        <v>0.89027249999827707</v>
       </c>
       <c r="B121" t="s">
         <v>415</v>
@@ -9304,7 +9310,7 @@
     <row r="122" spans="1:6">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25122483683690755</v>
+        <v>0.34665773876782324</v>
       </c>
       <c r="B122" t="s">
         <v>418</v>
@@ -9322,7 +9328,7 @@
     <row r="123" spans="1:6">
       <c r="A123">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30320935487237832</v>
+        <v>0.62830377132396897</v>
       </c>
       <c r="B123" t="s">
         <v>421</v>
@@ -9340,7 +9346,7 @@
     <row r="124" spans="1:6">
       <c r="A124">
         <f t="shared" ca="1" si="1"/>
-        <v>0.801009063405972</v>
+        <v>0.35216438249010285</v>
       </c>
       <c r="B124" t="s">
         <v>424</v>
@@ -9358,7 +9364,7 @@
     <row r="125" spans="1:6">
       <c r="A125">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55066747672118377</v>
+        <v>4.9520291145643824E-4</v>
       </c>
       <c r="B125" t="s">
         <v>429</v>
@@ -9376,7 +9382,7 @@
     <row r="126" spans="1:6">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25011147532977196</v>
+        <v>0.84763868027086331</v>
       </c>
       <c r="B126" t="s">
         <v>432</v>
@@ -9394,7 +9400,7 @@
     <row r="127" spans="1:6">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>4.498053921033307E-3</v>
+        <v>0.77576310717717656</v>
       </c>
       <c r="B127" t="s">
         <v>435</v>
@@ -9412,7 +9418,7 @@
     <row r="128" spans="1:6">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7003826272996059E-2</v>
+        <v>0.67235993475523448</v>
       </c>
       <c r="B128" t="s">
         <v>438</v>
@@ -9430,7 +9436,7 @@
     <row r="129" spans="1:6">
       <c r="A129">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75734635243399751</v>
+        <v>0.47360699453688859</v>
       </c>
       <c r="B129" t="s">
         <v>441</v>
@@ -9445,7 +9451,7 @@
     <row r="130" spans="1:6">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.92852303016673199</v>
+        <v>0.63667487138088363</v>
       </c>
       <c r="B130" t="s">
         <v>443</v>
@@ -9460,7 +9466,7 @@
     <row r="131" spans="1:6">
       <c r="A131">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8044223513280333</v>
+        <v>5.09373414697053E-2</v>
       </c>
       <c r="B131" t="s">
         <v>445</v>
@@ -9475,7 +9481,7 @@
     <row r="132" spans="1:6">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92916115514891762</v>
+        <v>0.55801172871863636</v>
       </c>
       <c r="B132" t="s">
         <v>447</v>
@@ -9490,7 +9496,7 @@
     <row r="133" spans="1:6">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72977689009994151</v>
+        <v>5.8051138699804827E-2</v>
       </c>
       <c r="B133" t="s">
         <v>449</v>
@@ -9505,7 +9511,7 @@
     <row r="134" spans="1:6">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62084946308066258</v>
+        <v>0.74067165075796637</v>
       </c>
       <c r="B134" t="s">
         <v>451</v>
@@ -9520,7 +9526,7 @@
     <row r="135" spans="1:6">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63008869735516893</v>
+        <v>0.85309382988504234</v>
       </c>
       <c r="B135" t="s">
         <v>453</v>
@@ -9538,7 +9544,7 @@
     <row r="136" spans="1:6">
       <c r="A136">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62590001644765958</v>
+        <v>0.86257939207380396</v>
       </c>
       <c r="B136" t="s">
         <v>456</v>
@@ -9553,7 +9559,7 @@
     <row r="137" spans="1:6">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81567736940080771</v>
+        <v>6.3230671066373478E-2</v>
       </c>
       <c r="B137" t="s">
         <v>458</v>
@@ -9568,7 +9574,7 @@
     <row r="138" spans="1:6">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33583319458105276</v>
+        <v>6.4927862081019527E-2</v>
       </c>
       <c r="B138" t="s">
         <v>460</v>
@@ -9586,7 +9592,7 @@
     <row r="139" spans="1:6">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36763206843531415</v>
+        <v>0.13809212644920921</v>
       </c>
       <c r="B139" t="s">
         <v>463</v>
@@ -9604,7 +9610,7 @@
     <row r="140" spans="1:6">
       <c r="A140">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2157101283230256E-2</v>
+        <v>0.20828043308100563</v>
       </c>
       <c r="B140" t="s">
         <v>466</v>
@@ -9622,7 +9628,7 @@
     <row r="141" spans="1:6">
       <c r="A141">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88511830043064155</v>
+        <v>6.7565405478711038E-2</v>
       </c>
       <c r="B141" t="s">
         <v>469</v>
@@ -9640,7 +9646,7 @@
     <row r="142" spans="1:6">
       <c r="A142">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23816310966057541</v>
+        <v>0.52503538159898178</v>
       </c>
       <c r="B142" t="s">
         <v>472</v>
@@ -9655,7 +9661,7 @@
     <row r="143" spans="1:6">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6899006701073276E-5</v>
+        <v>0.43209198725460518</v>
       </c>
       <c r="B143" t="s">
         <v>474</v>
@@ -9673,7 +9679,7 @@
     <row r="144" spans="1:6">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34049723245729491</v>
+        <v>0.19121812881420341</v>
       </c>
       <c r="B144" t="s">
         <v>477</v>
@@ -9688,7 +9694,7 @@
     <row r="145" spans="1:6">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38263541086353181</v>
+        <v>0.66932486520692769</v>
       </c>
       <c r="B145" t="s">
         <v>479</v>
@@ -9706,7 +9712,7 @@
     <row r="146" spans="1:6">
       <c r="A146">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4553489580191759E-2</v>
+        <v>0.74535713629824429</v>
       </c>
       <c r="B146" t="s">
         <v>482</v>
@@ -9724,7 +9730,7 @@
     <row r="147" spans="1:6">
       <c r="A147">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63855750052318661</v>
+        <v>0.98301649827206028</v>
       </c>
       <c r="B147" t="s">
         <v>485</v>
@@ -9742,7 +9748,7 @@
     <row r="148" spans="1:6">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76030572263666463</v>
+        <v>0.52307069833025299</v>
       </c>
       <c r="B148" t="s">
         <v>488</v>
@@ -9757,7 +9763,7 @@
     <row r="149" spans="1:6">
       <c r="A149">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44107725806011122</v>
+        <v>0.78399980221423071</v>
       </c>
       <c r="B149" t="s">
         <v>490</v>
@@ -9775,7 +9781,7 @@
     <row r="150" spans="1:6">
       <c r="A150">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10136241752480224</v>
+        <v>0.71951119917310746</v>
       </c>
       <c r="B150" t="s">
         <v>493</v>
@@ -9793,7 +9799,7 @@
     <row r="151" spans="1:6">
       <c r="A151">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43742256499086718</v>
+        <v>0.75792932785193501</v>
       </c>
       <c r="B151" t="s">
         <v>496</v>
@@ -9811,7 +9817,7 @@
     <row r="152" spans="1:6">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35788425680181246</v>
+        <v>0.24121269131971601</v>
       </c>
       <c r="B152" t="s">
         <v>499</v>
@@ -9826,7 +9832,7 @@
     <row r="153" spans="1:6">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53382279738800842</v>
+        <v>0.80173704623098718</v>
       </c>
       <c r="B153" t="s">
         <v>501</v>
@@ -9844,7 +9850,7 @@
     <row r="154" spans="1:6">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91729904731652234</v>
+        <v>0.30757422156376835</v>
       </c>
       <c r="B154" t="s">
         <v>504</v>
@@ -9859,7 +9865,7 @@
     <row r="155" spans="1:6">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44549857413561966</v>
+        <v>0.96478347941713938</v>
       </c>
       <c r="B155" t="s">
         <v>506</v>
@@ -9877,7 +9883,7 @@
     <row r="156" spans="1:6">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68345823445396692</v>
+        <v>0.21368388099927382</v>
       </c>
       <c r="B156" t="s">
         <v>509</v>
@@ -9895,7 +9901,7 @@
     <row r="157" spans="1:6">
       <c r="A157">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33275412677871752</v>
+        <v>0.34589860650130844</v>
       </c>
       <c r="B157" t="s">
         <v>512</v>
@@ -9913,7 +9919,7 @@
     <row r="158" spans="1:6">
       <c r="A158">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13423685030036114</v>
+        <v>0.37337576485715362</v>
       </c>
       <c r="B158" t="s">
         <v>515</v>
@@ -9931,7 +9937,7 @@
     <row r="159" spans="1:6">
       <c r="A159">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52445434349350595</v>
+        <v>0.68220279663915662</v>
       </c>
       <c r="B159" t="s">
         <v>518</v>
@@ -9949,7 +9955,7 @@
     <row r="160" spans="1:6">
       <c r="A160">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6876349843272305E-3</v>
+        <v>0.87561579002750567</v>
       </c>
       <c r="B160" t="s">
         <v>521</v>
@@ -9967,7 +9973,7 @@
     <row r="161" spans="1:9">
       <c r="A161">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2383265118204263E-2</v>
+        <v>2.6395466047999805E-2</v>
       </c>
       <c r="B161" t="s">
         <v>524</v>
@@ -9985,7 +9991,7 @@
     <row r="162" spans="1:9">
       <c r="A162">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12438310265256891</v>
+        <v>0.69511433784021381</v>
       </c>
       <c r="B162" t="s">
         <v>527</v>
@@ -10003,7 +10009,7 @@
     <row r="163" spans="1:9">
       <c r="A163">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12514935895932211</v>
+        <v>0.37266581024589429</v>
       </c>
       <c r="B163" t="s">
         <v>530</v>
@@ -10021,7 +10027,7 @@
     <row r="164" spans="1:9">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77220910269171894</v>
+        <v>0.87502498714847232</v>
       </c>
       <c r="B164" t="s">
         <v>533</v>
@@ -10039,7 +10045,7 @@
     <row r="165" spans="1:9">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9709148544924955E-2</v>
+        <v>0.32269103495964568</v>
       </c>
       <c r="B165" t="s">
         <v>536</v>
@@ -10057,7 +10063,7 @@
     <row r="166" spans="1:9">
       <c r="A166">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86166662953064455</v>
+        <v>5.3395317662663366E-2</v>
       </c>
       <c r="B166" t="s">
         <v>540</v>
@@ -10081,7 +10087,7 @@
     <row r="167" spans="1:9">
       <c r="A167">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50288087592956987</v>
+        <v>0.3765518219013253</v>
       </c>
       <c r="B167" t="s">
         <v>544</v>
@@ -10105,7 +10111,7 @@
     <row r="168" spans="1:9">
       <c r="A168">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67552998810371057</v>
+        <v>0.88320882292237268</v>
       </c>
       <c r="B168" t="s">
         <v>547</v>
@@ -10129,7 +10135,7 @@
     <row r="169" spans="1:9">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73984201572174446</v>
+        <v>0.53388959124046032</v>
       </c>
       <c r="B169" t="s">
         <v>549</v>
@@ -10153,7 +10159,7 @@
     <row r="170" spans="1:9">
       <c r="A170">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9531810698699148</v>
+        <v>0.41406649954286179</v>
       </c>
       <c r="B170" t="s">
         <v>552</v>
@@ -10177,7 +10183,7 @@
     <row r="171" spans="1:9">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23376151432186332</v>
+        <v>0.83850554620425033</v>
       </c>
       <c r="B171" t="s">
         <v>556</v>
@@ -10201,7 +10207,7 @@
     <row r="172" spans="1:9">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76845727083169779</v>
+        <v>0.76395658058368587</v>
       </c>
       <c r="B172" t="s">
         <v>560</v>
@@ -10225,7 +10231,7 @@
     <row r="173" spans="1:9">
       <c r="A173">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19095968982460765</v>
+        <v>0.5108949084089931</v>
       </c>
       <c r="B173" t="s">
         <v>562</v>
@@ -10246,7 +10252,7 @@
     <row r="174" spans="1:9">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70465229614615899</v>
+        <v>0.70895583129444095</v>
       </c>
       <c r="B174" t="s">
         <v>565</v>
@@ -10267,7 +10273,7 @@
     <row r="175" spans="1:9">
       <c r="A175">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53211679901300157</v>
+        <v>0.71050262084498694</v>
       </c>
       <c r="B175" t="s">
         <v>568</v>
@@ -10291,7 +10297,7 @@
     <row r="176" spans="1:9">
       <c r="A176">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93301751970733748</v>
+        <v>0.70940107430030108</v>
       </c>
       <c r="B176" t="s">
         <v>572</v>
@@ -10315,7 +10321,7 @@
     <row r="177" spans="1:9">
       <c r="A177">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43284226525335645</v>
+        <v>0.33212968487774264</v>
       </c>
       <c r="B177" t="s">
         <v>575</v>
@@ -10336,7 +10342,7 @@
     <row r="178" spans="1:9">
       <c r="A178">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69464438214082258</v>
+        <v>0.2940866348122777</v>
       </c>
       <c r="B178" t="s">
         <v>577</v>
@@ -10360,7 +10366,7 @@
     <row r="179" spans="1:9">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34003723085693516</v>
+        <v>0.17020429899511369</v>
       </c>
       <c r="B179" t="s">
         <v>581</v>
@@ -10378,7 +10384,7 @@
     <row r="180" spans="1:9">
       <c r="A180">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1543218897208929E-2</v>
+        <v>0.23765876636086558</v>
       </c>
       <c r="B180" t="s">
         <v>583</v>
@@ -10399,7 +10405,7 @@
     <row r="181" spans="1:9">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20391277404453456</v>
+        <v>0.4471626946609274</v>
       </c>
       <c r="B181" t="s">
         <v>587</v>
@@ -10417,7 +10423,7 @@
     <row r="182" spans="1:9">
       <c r="A182">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57862414574206944</v>
+        <v>9.7204126480861963E-2</v>
       </c>
       <c r="B182" t="s">
         <v>589</v>
@@ -10438,7 +10444,7 @@
     <row r="183" spans="1:9">
       <c r="A183">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46317585114054971</v>
+        <v>0.402034796944996</v>
       </c>
       <c r="B183" t="s">
         <v>592</v>
@@ -10456,7 +10462,7 @@
     <row r="184" spans="1:9">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17424139625956736</v>
+        <v>0.23539902371440025</v>
       </c>
       <c r="B184" t="s">
         <v>594</v>
@@ -10474,7 +10480,7 @@
     <row r="185" spans="1:9">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4839898984748205E-2</v>
+        <v>0.53107073783462122</v>
       </c>
       <c r="B185" t="s">
         <v>596</v>
@@ -10495,7 +10501,7 @@
     <row r="186" spans="1:9" ht="17.25" customHeight="1">
       <c r="A186">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37984780134978013</v>
+        <v>0.85938566180418619</v>
       </c>
       <c r="B186" t="s">
         <v>599</v>
@@ -10513,7 +10519,7 @@
     <row r="187" spans="1:9">
       <c r="A187">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47771210570927602</v>
+        <v>0.43445825192738552</v>
       </c>
       <c r="B187" t="s">
         <v>602</v>
@@ -10528,7 +10534,7 @@
     <row r="188" spans="1:9">
       <c r="A188">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86751022196216399</v>
+        <v>0.1521323985988251</v>
       </c>
       <c r="B188" t="s">
         <v>604</v>
@@ -10543,7 +10549,7 @@
     <row r="189" spans="1:9">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77886770982378239</v>
+        <v>0.62515078859466888</v>
       </c>
       <c r="B189" t="s">
         <v>606</v>
@@ -10558,7 +10564,7 @@
     <row r="190" spans="1:9">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66453469054469649</v>
+        <v>0.16533965851704635</v>
       </c>
       <c r="B190" t="s">
         <v>608</v>
@@ -10573,7 +10579,7 @@
     <row r="191" spans="1:9">
       <c r="A191">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46424267736184732</v>
+        <v>0.55075026810064387</v>
       </c>
       <c r="B191" t="s">
         <v>610</v>
@@ -10591,7 +10597,7 @@
     <row r="192" spans="1:9">
       <c r="A192">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92648246001506862</v>
+        <v>0.45122659153198164</v>
       </c>
       <c r="B192" t="s">
         <v>613</v>
@@ -10606,7 +10612,7 @@
     <row r="193" spans="1:6">
       <c r="A193">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38370462938719296</v>
+        <v>9.9344676890436023E-2</v>
       </c>
       <c r="B193" t="s">
         <v>616</v>
@@ -10621,7 +10627,7 @@
     <row r="194" spans="1:6">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.92495658554991855</v>
+        <v>0.11116620052918769</v>
       </c>
       <c r="B194" t="s">
         <v>618</v>
@@ -10636,7 +10642,7 @@
     <row r="195" spans="1:6">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34264979088654901</v>
+        <v>0.56164475021712323</v>
       </c>
       <c r="B195" t="s">
         <v>620</v>
@@ -10654,7 +10660,7 @@
     <row r="196" spans="1:6">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60072543245468624</v>
+        <v>0.37392282978353164</v>
       </c>
       <c r="B196" t="s">
         <v>623</v>
@@ -10672,7 +10678,7 @@
     <row r="197" spans="1:6">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5570052565566832E-2</v>
+        <v>0.79175516434849469</v>
       </c>
       <c r="B197" t="s">
         <v>626</v>
@@ -10690,7 +10696,7 @@
     <row r="198" spans="1:6">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8151258925328444</v>
+        <v>0.72318676086833</v>
       </c>
       <c r="B198" t="s">
         <v>629</v>
@@ -10708,7 +10714,7 @@
     <row r="199" spans="1:6">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2123521556565765</v>
+        <v>0.43253815864697398</v>
       </c>
       <c r="B199" t="s">
         <v>632</v>
@@ -10726,7 +10732,7 @@
     <row r="200" spans="1:6">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10518008713894533</v>
+        <v>0.11537163711134713</v>
       </c>
       <c r="B200" t="s">
         <v>635</v>
@@ -10744,7 +10750,7 @@
     <row r="201" spans="1:6">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81517983574592268</v>
+        <v>0.48802184294710926</v>
       </c>
       <c r="B201" t="s">
         <v>638</v>
@@ -10762,7 +10768,7 @@
     <row r="202" spans="1:6">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68458247053186594</v>
+        <v>0.15967970454353375</v>
       </c>
       <c r="B202" t="s">
         <v>641</v>
@@ -10780,7 +10786,7 @@
     <row r="203" spans="1:6">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46837188046816203</v>
+        <v>0.33189102720216801</v>
       </c>
       <c r="B203" t="s">
         <v>644</v>
@@ -10795,7 +10801,7 @@
     <row r="204" spans="1:6">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82181724704085435</v>
+        <v>0.61690853807887058</v>
       </c>
       <c r="B204" t="s">
         <v>646</v>
@@ -10813,7 +10819,7 @@
     <row r="205" spans="1:6">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61262144732684676</v>
+        <v>0.48743102751573375</v>
       </c>
       <c r="B205" t="s">
         <v>648</v>
@@ -10831,7 +10837,7 @@
     <row r="206" spans="1:6">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93365129042885686</v>
+        <v>0.56925903179637516</v>
       </c>
       <c r="B206" t="s">
         <v>651</v>
@@ -10846,7 +10852,7 @@
     <row r="207" spans="1:6">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76942590134683675</v>
+        <v>0.92477241320134074</v>
       </c>
       <c r="B207" t="s">
         <v>653</v>
@@ -10861,7 +10867,7 @@
     <row r="208" spans="1:6">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44525929405880438</v>
+        <v>0.54292209130962477</v>
       </c>
       <c r="B208" t="s">
         <v>655</v>
@@ -10879,7 +10885,7 @@
     <row r="209" spans="1:9">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40760891590219006</v>
+        <v>0.18322252644023995</v>
       </c>
       <c r="B209" t="s">
         <v>658</v>
@@ -10897,7 +10903,7 @@
     <row r="210" spans="1:9">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22013808874374652</v>
+        <v>0.26849082979587813</v>
       </c>
       <c r="B210" t="s">
         <v>661</v>
@@ -10912,7 +10918,7 @@
     <row r="211" spans="1:9">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64697701389931661</v>
+        <v>0.69787875508635355</v>
       </c>
       <c r="B211" t="s">
         <v>663</v>
@@ -10930,7 +10936,7 @@
     <row r="212" spans="1:9">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40265538686750191</v>
+        <v>0.23447514332811747</v>
       </c>
       <c r="B212" t="s">
         <v>666</v>
@@ -10945,7 +10951,7 @@
     <row r="213" spans="1:9">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3000084904565443E-2</v>
+        <v>8.8773469290627682E-2</v>
       </c>
       <c r="B213" t="s">
         <v>669</v>
@@ -10963,7 +10969,7 @@
     <row r="214" spans="1:9">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14154677733789967</v>
+        <v>0.43154824720962759</v>
       </c>
       <c r="B214" t="s">
         <v>672</v>
@@ -10981,7 +10987,7 @@
     <row r="215" spans="1:9">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25755834838206448</v>
+        <v>2.3001452638927833E-2</v>
       </c>
       <c r="B215" t="s">
         <v>675</v>
@@ -10999,7 +11005,7 @@
     <row r="216" spans="1:9">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18612353666977788</v>
+        <v>0.73978978608027857</v>
       </c>
       <c r="B216" t="s">
         <v>678</v>
@@ -11017,7 +11023,7 @@
     <row r="217" spans="1:9">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18271638120693479</v>
+        <v>0.62943787838503873</v>
       </c>
       <c r="B217" t="s">
         <v>681</v>
@@ -11035,7 +11041,7 @@
     <row r="218" spans="1:9">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22120791636843706</v>
+        <v>0.58018242146992638</v>
       </c>
       <c r="B218" t="s">
         <v>518</v>
@@ -11053,7 +11059,7 @@
     <row r="219" spans="1:9">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82396957614449151</v>
+        <v>0.60876149712261485</v>
       </c>
       <c r="B219" t="s">
         <v>521</v>
@@ -11071,7 +11077,7 @@
     <row r="220" spans="1:9">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21848874011925667</v>
+        <v>0.70243252559006197</v>
       </c>
       <c r="B220" t="s">
         <v>524</v>
@@ -11089,7 +11095,7 @@
     <row r="221" spans="1:9">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38706899868737099</v>
+        <v>0.6410898059953497</v>
       </c>
       <c r="B221" t="s">
         <v>527</v>
@@ -11107,7 +11113,7 @@
     <row r="222" spans="1:9">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76566855716103732</v>
+        <v>2.8864875875832974E-2</v>
       </c>
       <c r="B222" t="s">
         <v>687</v>
@@ -11125,7 +11131,7 @@
     <row r="223" spans="1:9">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91408437914991714</v>
+        <v>0.54827770625891203</v>
       </c>
       <c r="B223" t="s">
         <v>688</v>
@@ -11149,7 +11155,7 @@
     <row r="224" spans="1:9">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78079484183361736</v>
+        <v>0.22782327631041965</v>
       </c>
       <c r="B224" t="s">
         <v>692</v>
@@ -11170,7 +11176,7 @@
     <row r="225" spans="1:9">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>4.871675567120759E-3</v>
+        <v>0.73816518427921796</v>
       </c>
       <c r="B225" t="s">
         <v>695</v>
@@ -11194,7 +11200,7 @@
     <row r="226" spans="1:9">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74420090150579044</v>
+        <v>0.116949793365828</v>
       </c>
       <c r="B226" t="s">
         <v>698</v>
@@ -11218,7 +11224,7 @@
     <row r="227" spans="1:9">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83653934065301627</v>
+        <v>0.13278372115505421</v>
       </c>
       <c r="B227" t="s">
         <v>702</v>
@@ -11242,7 +11248,7 @@
     <row r="228" spans="1:9">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56213880420436613</v>
+        <v>0.31113163456785353</v>
       </c>
       <c r="B228" t="s">
         <v>706</v>
@@ -11266,7 +11272,7 @@
     <row r="229" spans="1:9">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83216072507203909</v>
+        <v>0.72527218834653095</v>
       </c>
       <c r="B229" t="s">
         <v>709</v>
@@ -11287,7 +11293,7 @@
     <row r="230" spans="1:9">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73063225517157826</v>
+        <v>0.10459791430268328</v>
       </c>
       <c r="B230" t="s">
         <v>712</v>
@@ -11308,7 +11314,7 @@
     <row r="231" spans="1:9">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62371460276456558</v>
+        <v>0.62976939993086922</v>
       </c>
       <c r="B231" t="s">
         <v>715</v>
@@ -11323,7 +11329,7 @@
     <row r="232" spans="1:9">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58776661417505116</v>
+        <v>0.4633524238402118</v>
       </c>
       <c r="B232" t="s">
         <v>717</v>
@@ -11338,7 +11344,7 @@
     <row r="233" spans="1:9">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80697486153209819</v>
+        <v>0.11743706640960017</v>
       </c>
       <c r="B233" t="s">
         <v>719</v>
@@ -11353,7 +11359,7 @@
     <row r="234" spans="1:9">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86238306744204951</v>
+        <v>0.97742238650235624</v>
       </c>
       <c r="B234" t="s">
         <v>721</v>
@@ -11368,7 +11374,7 @@
     <row r="235" spans="1:9">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74745692914786854</v>
+        <v>0.48025426366960833</v>
       </c>
       <c r="B235" t="s">
         <v>723</v>
@@ -11383,7 +11389,7 @@
     <row r="236" spans="1:9">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4876216948679879</v>
+        <v>0.56794279665132452</v>
       </c>
       <c r="B236" t="s">
         <v>725</v>
@@ -11401,7 +11407,7 @@
     <row r="237" spans="1:9">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64471444040552861</v>
+        <v>0.88764769299194979</v>
       </c>
       <c r="B237" t="s">
         <v>729</v>
@@ -11422,7 +11428,7 @@
     <row r="238" spans="1:9">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18205680063941454</v>
+        <v>0.92398672982242347</v>
       </c>
       <c r="B238" t="s">
         <v>733</v>
@@ -11443,7 +11449,7 @@
     <row r="239" spans="1:9">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26085344281339551</v>
+        <v>0.97159341429163437</v>
       </c>
       <c r="B239" t="s">
         <v>737</v>
@@ -11464,7 +11470,7 @@
     <row r="240" spans="1:9">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74303536535934334</v>
+        <v>0.34917431135350252</v>
       </c>
       <c r="B240" t="s">
         <v>741</v>
@@ -11485,7 +11491,7 @@
     <row r="241" spans="1:6">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42762194877827076</v>
+        <v>0.93100822292931562</v>
       </c>
       <c r="B241" t="s">
         <v>745</v>
@@ -11506,7 +11512,7 @@
     <row r="242" spans="1:6">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61366863409037165</v>
+        <v>0.40205656491457009</v>
       </c>
       <c r="B242" t="s">
         <v>749</v>
@@ -11527,7 +11533,7 @@
     <row r="243" spans="1:6">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54777625767698301</v>
+        <v>0.35943592535839386</v>
       </c>
       <c r="B243" t="s">
         <v>753</v>
@@ -11548,7 +11554,7 @@
     <row r="244" spans="1:6">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6586165739390315</v>
+        <v>0.18349105901392038</v>
       </c>
       <c r="B244" t="s">
         <v>757</v>
@@ -11569,7 +11575,7 @@
     <row r="245" spans="1:6">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48022167011600991</v>
+        <v>0.83690842875603111</v>
       </c>
       <c r="B245" t="s">
         <v>761</v>
@@ -11590,7 +11596,7 @@
     <row r="246" spans="1:6">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38640665940134078</v>
+        <v>5.7878975809891098E-2</v>
       </c>
       <c r="B246" t="s">
         <v>765</v>
@@ -11611,7 +11617,7 @@
     <row r="247" spans="1:6">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46898652125043006</v>
+        <v>9.5647531218897353E-2</v>
       </c>
       <c r="B247" t="s">
         <v>770</v>
@@ -11629,7 +11635,7 @@
     <row r="248" spans="1:6">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84465519923581955</v>
+        <v>0.95475266103791645</v>
       </c>
       <c r="B248" t="s">
         <v>773</v>
@@ -11647,7 +11653,7 @@
     <row r="249" spans="1:6">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25297810408699994</v>
+        <v>2.1291827735712143E-3</v>
       </c>
       <c r="B249" t="s">
         <v>776</v>
@@ -11662,7 +11668,7 @@
     <row r="250" spans="1:6">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36099148167263961</v>
+        <v>0.40434034466925284</v>
       </c>
       <c r="B250" t="s">
         <v>778</v>
@@ -11680,7 +11686,7 @@
     <row r="251" spans="1:6">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88240279451523107</v>
+        <v>2.475208272077889E-2</v>
       </c>
       <c r="B251" t="s">
         <v>781</v>
@@ -11698,7 +11704,7 @@
     <row r="252" spans="1:6">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17095402517301073</v>
+        <v>0.69729469701762659</v>
       </c>
       <c r="B252" t="s">
         <v>784</v>
@@ -11716,7 +11722,7 @@
     <row r="253" spans="1:6">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1558206314934798</v>
+        <v>0.79815863425902811</v>
       </c>
       <c r="B253" t="s">
         <v>787</v>
@@ -11731,7 +11737,7 @@
     <row r="254" spans="1:6">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39543636096606261</v>
+        <v>0.62631415189191508</v>
       </c>
       <c r="B254" t="s">
         <v>789</v>
@@ -11749,7 +11755,7 @@
     <row r="255" spans="1:6">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28764709348252859</v>
+        <v>4.0532630716423546E-2</v>
       </c>
       <c r="B255" t="s">
         <v>792</v>
@@ -11767,7 +11773,7 @@
     <row r="256" spans="1:6">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74918268957152567</v>
+        <v>0.37203733902789204</v>
       </c>
       <c r="B256" t="s">
         <v>795</v>
@@ -11782,7 +11788,7 @@
     <row r="257" spans="1:9">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12731194839120996</v>
+        <v>9.564524933007823E-2</v>
       </c>
       <c r="B257" t="s">
         <v>797</v>
@@ -11797,7 +11803,7 @@
     <row r="258" spans="1:9">
       <c r="A258">
         <f t="shared" ref="A258:A299" ca="1" si="4">RAND()</f>
-        <v>0.25360375864691909</v>
+        <v>5.5107041613918439E-2</v>
       </c>
       <c r="B258" t="s">
         <v>799</v>
@@ -11815,7 +11821,7 @@
     <row r="259" spans="1:9">
       <c r="A259">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1610312875758124E-2</v>
+        <v>0.77536413314616304</v>
       </c>
       <c r="B259" t="s">
         <v>802</v>
@@ -11833,7 +11839,7 @@
     <row r="260" spans="1:9">
       <c r="A260">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5176491584680305</v>
+        <v>0.89787209658278799</v>
       </c>
       <c r="B260" t="s">
         <v>805</v>
@@ -11851,7 +11857,7 @@
     <row r="261" spans="1:9">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94227562671893161</v>
+        <v>5.6276439471223072E-2</v>
       </c>
       <c r="B261" t="s">
         <v>808</v>
@@ -11869,7 +11875,7 @@
     <row r="262" spans="1:9">
       <c r="A262">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38119089447513999</v>
+        <v>0.68730034991344124</v>
       </c>
       <c r="B262" t="s">
         <v>811</v>
@@ -11887,7 +11893,7 @@
     <row r="263" spans="1:9">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6983383649537265E-2</v>
+        <v>0.66633962452989892</v>
       </c>
       <c r="B263" t="s">
         <v>815</v>
@@ -11908,7 +11914,7 @@
     <row r="264" spans="1:9">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67419352017469303</v>
+        <v>0.90024970486828759</v>
       </c>
       <c r="B264" t="s">
         <v>818</v>
@@ -11929,7 +11935,7 @@
     <row r="265" spans="1:9">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73038455871295804</v>
+        <v>0.67583202708238177</v>
       </c>
       <c r="B265" t="s">
         <v>818</v>
@@ -11950,7 +11956,7 @@
     <row r="266" spans="1:9">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13572937401106466</v>
+        <v>0.8325353045841547</v>
       </c>
       <c r="B266" t="s">
         <v>823</v>
@@ -11971,7 +11977,7 @@
     <row r="267" spans="1:9">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19849819523403667</v>
+        <v>0.64887076646068109</v>
       </c>
       <c r="B267" t="s">
         <v>826</v>
@@ -11992,7 +11998,7 @@
     <row r="268" spans="1:9">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93574930140482648</v>
+        <v>8.604218056235502E-2</v>
       </c>
       <c r="B268" t="s">
         <v>829</v>
@@ -12013,7 +12019,7 @@
     <row r="269" spans="1:9">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14883456638763737</v>
+        <v>0.31842767507749159</v>
       </c>
       <c r="B269" t="s">
         <v>832</v>
@@ -12031,7 +12037,7 @@
     <row r="270" spans="1:9">
       <c r="A270">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80864792819593079</v>
+        <v>0.33946302963604458</v>
       </c>
       <c r="B270" t="s">
         <v>834</v>
@@ -12052,7 +12058,7 @@
     <row r="271" spans="1:9">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18918535816872506</v>
+        <v>9.6228898024732223E-2</v>
       </c>
       <c r="B271" t="s">
         <v>837</v>
@@ -12073,7 +12079,7 @@
     <row r="272" spans="1:9">
       <c r="A272">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90703614748413297</v>
+        <v>0.67782504308147618</v>
       </c>
       <c r="B272" t="s">
         <v>840</v>
@@ -12094,7 +12100,7 @@
     <row r="273" spans="1:9">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58867493912754032</v>
+        <v>2.7069250583084958E-3</v>
       </c>
       <c r="B273" t="s">
         <v>843</v>
@@ -12115,7 +12121,7 @@
     <row r="274" spans="1:9">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37889447156547273</v>
+        <v>9.8711185652052391E-2</v>
       </c>
       <c r="B274" t="s">
         <v>846</v>
@@ -12133,7 +12139,7 @@
     <row r="275" spans="1:9">
       <c r="A275">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71211223297364867</v>
+        <v>0.24644583819369326</v>
       </c>
       <c r="B275" t="s">
         <v>848</v>
@@ -12154,7 +12160,7 @@
     <row r="276" spans="1:9">
       <c r="A276">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71034472273968752</v>
+        <v>0.11072913564608011</v>
       </c>
       <c r="B276" t="s">
         <v>851</v>
@@ -12175,7 +12181,7 @@
     <row r="277" spans="1:9">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40455975604816552</v>
+        <v>0.40545112707386999</v>
       </c>
       <c r="B277" t="s">
         <v>854</v>
@@ -12193,7 +12199,7 @@
     <row r="278" spans="1:9">
       <c r="A278">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75601100060294901</v>
+        <v>0.40552912926603457</v>
       </c>
       <c r="B278" t="s">
         <v>856</v>
@@ -12214,7 +12220,7 @@
     <row r="279" spans="1:9">
       <c r="A279">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73493684872494258</v>
+        <v>0.87741961667249024</v>
       </c>
       <c r="B279" t="s">
         <v>860</v>
@@ -12238,7 +12244,7 @@
     <row r="280" spans="1:9">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19099544977097882</v>
+        <v>0.59775336849159411</v>
       </c>
       <c r="B280" t="s">
         <v>864</v>
@@ -12259,7 +12265,7 @@
     <row r="281" spans="1:9">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91625343784082547</v>
+        <v>0.97201408085208674</v>
       </c>
       <c r="B281" t="s">
         <v>867</v>
@@ -12280,7 +12286,7 @@
     <row r="282" spans="1:9">
       <c r="A282">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76902930725294727</v>
+        <v>0.68090816038189628</v>
       </c>
       <c r="B282" t="s">
         <v>870</v>
@@ -12301,7 +12307,7 @@
     <row r="283" spans="1:9">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35805899807065811</v>
+        <v>0.84448632667325607</v>
       </c>
       <c r="B283" t="s">
         <v>873</v>
@@ -12325,7 +12331,7 @@
     <row r="284" spans="1:9">
       <c r="A284">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57861800359165505</v>
+        <v>0.29183382961222681</v>
       </c>
       <c r="B284" t="s">
         <v>876</v>
@@ -12349,7 +12355,7 @@
     <row r="285" spans="1:9">
       <c r="A285">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15990430625415686</v>
+        <v>0.84351597806086198</v>
       </c>
       <c r="B285" t="s">
         <v>879</v>
@@ -12373,7 +12379,7 @@
     <row r="286" spans="1:9">
       <c r="A286">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47443427252331416</v>
+        <v>0.30721067757084419</v>
       </c>
       <c r="B286" t="s">
         <v>882</v>
@@ -12391,7 +12397,7 @@
     <row r="287" spans="1:9">
       <c r="A287">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77649836783753823</v>
+        <v>0.42243270591481163</v>
       </c>
       <c r="B287" t="s">
         <v>884</v>
@@ -12412,7 +12418,7 @@
     <row r="288" spans="1:9">
       <c r="A288">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49275338953680392</v>
+        <v>0.26117466470018325</v>
       </c>
       <c r="B288" t="s">
         <v>887</v>
@@ -12433,7 +12439,7 @@
     <row r="289" spans="1:9">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79534617001499874</v>
+        <v>0.53090390951971911</v>
       </c>
       <c r="B289" t="s">
         <v>547</v>
@@ -12457,7 +12463,7 @@
     <row r="290" spans="1:9">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33628916779261953</v>
+        <v>0.42252159440815995</v>
       </c>
       <c r="B290" t="s">
         <v>893</v>
@@ -12481,7 +12487,7 @@
     <row r="291" spans="1:9">
       <c r="A291">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63267821865875895</v>
+        <v>0.58354355957985293</v>
       </c>
       <c r="B291" t="s">
         <v>897</v>
@@ -12502,7 +12508,7 @@
     <row r="292" spans="1:9">
       <c r="A292">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8942819324338126</v>
+        <v>0.84790150963597211</v>
       </c>
       <c r="B292" t="s">
         <v>899</v>
@@ -12523,7 +12529,7 @@
     <row r="293" spans="1:9">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50956945269721177</v>
+        <v>8.8815883470595769E-2</v>
       </c>
       <c r="B293" t="s">
         <v>903</v>
@@ -12541,7 +12547,7 @@
     <row r="294" spans="1:9">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69693473718210652</v>
+        <v>0.86689217774650262</v>
       </c>
       <c r="B294" t="s">
         <v>906</v>
@@ -12556,7 +12562,7 @@
     <row r="295" spans="1:9">
       <c r="A295">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3870164442115811</v>
+        <v>0.36917556655090955</v>
       </c>
       <c r="B295" t="s">
         <v>908</v>
@@ -12571,7 +12577,7 @@
     <row r="296" spans="1:9">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66570217456716541</v>
+        <v>0.64097259257649386</v>
       </c>
       <c r="B296" t="s">
         <v>910</v>
@@ -12589,7 +12595,7 @@
     <row r="297" spans="1:9">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21469329326045916</v>
+        <v>0.41022513668255911</v>
       </c>
       <c r="B297" t="s">
         <v>913</v>
@@ -12604,7 +12610,7 @@
     <row r="298" spans="1:9">
       <c r="A298">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51491784323280121</v>
+        <v>0.83307629960816831</v>
       </c>
       <c r="B298" t="s">
         <v>915</v>
@@ -12622,7 +12628,7 @@
     <row r="299" spans="1:9">
       <c r="A299">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19737102695393105</v>
+        <v>0.4446617417260178</v>
       </c>
       <c r="B299" t="s">
         <v>918</v>
@@ -12637,7 +12643,7 @@
     <row r="300" spans="1:9">
       <c r="A300">
         <f ca="1">RAND()</f>
-        <v>0.35186905809954028</v>
+        <v>0.60497128708489012</v>
       </c>
       <c r="B300" t="s">
         <v>921</v>
@@ -12655,7 +12661,7 @@
     <row r="301" spans="1:9">
       <c r="A301">
         <f t="shared" ref="A301:A364" ca="1" si="5">RAND()</f>
-        <v>2.6779972713575906E-2</v>
+        <v>0.16286768405744589</v>
       </c>
       <c r="B301" t="s">
         <v>924</v>
@@ -12673,7 +12679,7 @@
     <row r="302" spans="1:9">
       <c r="A302">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88664435147352871</v>
+        <v>0.32500175259640685</v>
       </c>
       <c r="B302" t="s">
         <v>928</v>
@@ -12691,7 +12697,7 @@
     <row r="303" spans="1:9">
       <c r="A303">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35462401839136071</v>
+        <v>0.84860279972019781</v>
       </c>
       <c r="B303" t="s">
         <v>930</v>
@@ -12709,7 +12715,7 @@
     <row r="304" spans="1:9">
       <c r="A304">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34452748740761274</v>
+        <v>0.49484635556379863</v>
       </c>
       <c r="B304" t="s">
         <v>933</v>
@@ -12727,7 +12733,7 @@
     <row r="305" spans="1:9">
       <c r="A305">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77326606318195568</v>
+        <v>3.8824043903500471E-2</v>
       </c>
       <c r="B305" t="s">
         <v>936</v>
@@ -12742,7 +12748,7 @@
     <row r="306" spans="1:9">
       <c r="A306">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15043460160259037</v>
+        <v>0.17179487983406094</v>
       </c>
       <c r="B306" t="s">
         <v>938</v>
@@ -12760,7 +12766,7 @@
     <row r="307" spans="1:9">
       <c r="A307">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81078597634245253</v>
+        <v>0.91932410920003571</v>
       </c>
       <c r="B307" t="s">
         <v>941</v>
@@ -12775,7 +12781,7 @@
     <row r="308" spans="1:9">
       <c r="A308">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3764852041038305E-3</v>
+        <v>0.51624132563844627</v>
       </c>
       <c r="B308" t="s">
         <v>943</v>
@@ -12793,7 +12799,7 @@
     <row r="309" spans="1:9">
       <c r="A309">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82907489965062309</v>
+        <v>0.49444686010015482</v>
       </c>
       <c r="B309" t="s">
         <v>946</v>
@@ -12811,7 +12817,7 @@
     <row r="310" spans="1:9">
       <c r="A310">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92351711809928538</v>
+        <v>0.69575656380708784</v>
       </c>
       <c r="B310" t="s">
         <v>949</v>
@@ -12829,7 +12835,7 @@
     <row r="311" spans="1:9">
       <c r="A311">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19946824123466267</v>
+        <v>0.69039966839157996</v>
       </c>
       <c r="B311" t="s">
         <v>952</v>
@@ -12844,7 +12850,7 @@
     <row r="312" spans="1:9">
       <c r="A312">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25664167470498211</v>
+        <v>0.56652982556413067</v>
       </c>
       <c r="B312" t="s">
         <v>954</v>
@@ -12859,7 +12865,7 @@
     <row r="313" spans="1:9">
       <c r="A313">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82745220554836219</v>
+        <v>0.28692903290109151</v>
       </c>
       <c r="B313" t="s">
         <v>956</v>
@@ -12877,7 +12883,7 @@
     <row r="314" spans="1:9">
       <c r="A314">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75078191234621683</v>
+        <v>0.62198703023381186</v>
       </c>
       <c r="B314" t="s">
         <v>959</v>
@@ -12895,7 +12901,7 @@
     <row r="315" spans="1:9">
       <c r="A315">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46061266390778388</v>
+        <v>3.1994979402581558E-2</v>
       </c>
       <c r="B315" t="s">
         <v>962</v>
@@ -12913,7 +12919,7 @@
     <row r="316" spans="1:9">
       <c r="A316">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51499348109185261</v>
+        <v>0.80109436431815995</v>
       </c>
       <c r="B316" t="s">
         <v>965</v>
@@ -12931,7 +12937,7 @@
     <row r="317" spans="1:9">
       <c r="A317">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74261091680204738</v>
+        <v>0.12401602711743309</v>
       </c>
       <c r="B317" t="s">
         <v>969</v>
@@ -12952,7 +12958,7 @@
     <row r="318" spans="1:9">
       <c r="A318">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77397763849363133</v>
+        <v>0.73211282268370359</v>
       </c>
       <c r="B318" t="s">
         <v>972</v>
@@ -12973,7 +12979,7 @@
     <row r="319" spans="1:9">
       <c r="A319">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92644089968589916</v>
+        <v>0.69504247649633599</v>
       </c>
       <c r="B319" t="s">
         <v>975</v>
@@ -12994,7 +13000,7 @@
     <row r="320" spans="1:9">
       <c r="A320">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95541074943044457</v>
+        <v>0.11682097913500944</v>
       </c>
       <c r="B320" t="s">
         <v>978</v>
@@ -13015,7 +13021,7 @@
     <row r="321" spans="1:9">
       <c r="A321">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24207002315143189</v>
+        <v>7.8051004983977657E-2</v>
       </c>
       <c r="B321" t="s">
         <v>981</v>
@@ -13039,7 +13045,7 @@
     <row r="322" spans="1:9">
       <c r="A322">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2883836900206761</v>
+        <v>0.95268062487762462</v>
       </c>
       <c r="B322" t="s">
         <v>985</v>
@@ -13063,7 +13069,7 @@
     <row r="323" spans="1:9">
       <c r="A323">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62383521384051199</v>
+        <v>1.3876542454222984E-2</v>
       </c>
       <c r="B323" t="s">
         <v>988</v>
@@ -13084,7 +13090,7 @@
     <row r="324" spans="1:9">
       <c r="A324">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67633820604627692</v>
+        <v>0.32609931738633546</v>
       </c>
       <c r="B324" t="s">
         <v>991</v>
@@ -13108,7 +13114,7 @@
     <row r="325" spans="1:9">
       <c r="A325">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83240301103866599</v>
+        <v>0.59543079901462137</v>
       </c>
       <c r="B325" t="s">
         <v>994</v>
@@ -13129,7 +13135,7 @@
     <row r="326" spans="1:9">
       <c r="A326">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20607869486459673</v>
+        <v>5.1162636285716268E-2</v>
       </c>
       <c r="B326" t="s">
         <v>997</v>
@@ -13150,7 +13156,7 @@
     <row r="327" spans="1:9">
       <c r="A327">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66324003103700502</v>
+        <v>3.6822346507176307E-2</v>
       </c>
       <c r="B327" t="s">
         <v>1000</v>
@@ -13174,7 +13180,7 @@
     <row r="328" spans="1:9">
       <c r="A328">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16384740833024491</v>
+        <v>0.34600004515297356</v>
       </c>
       <c r="B328" t="s">
         <v>1003</v>
@@ -13198,7 +13204,7 @@
     <row r="329" spans="1:9">
       <c r="A329">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67727770875709514</v>
+        <v>0.57453564685493763</v>
       </c>
       <c r="B329" t="s">
         <v>1007</v>
@@ -13222,7 +13228,7 @@
     <row r="330" spans="1:9">
       <c r="A330">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7501585718954011E-2</v>
+        <v>0.46784333130789479</v>
       </c>
       <c r="B330" t="s">
         <v>1010</v>
@@ -13246,7 +13252,7 @@
     <row r="331" spans="1:9">
       <c r="A331">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33055594100223762</v>
+        <v>0.48515754749549211</v>
       </c>
       <c r="B331" t="s">
         <v>1013</v>
@@ -13270,7 +13276,7 @@
     <row r="332" spans="1:9">
       <c r="A332">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4148202312706174</v>
+        <v>0.87956970432435755</v>
       </c>
       <c r="B332" t="s">
         <v>1016</v>
@@ -13294,7 +13300,7 @@
     <row r="333" spans="1:9">
       <c r="A333">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97789252057947373</v>
+        <v>0.28937678777991582</v>
       </c>
       <c r="B333" t="s">
         <v>1019</v>
@@ -13318,7 +13324,7 @@
     <row r="334" spans="1:9">
       <c r="A334">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31880804291668485</v>
+        <v>0.38208113940019683</v>
       </c>
       <c r="B334" t="s">
         <v>1022</v>
@@ -13342,7 +13348,7 @@
     <row r="335" spans="1:9">
       <c r="A335">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29038339823340753</v>
+        <v>0.74823607827910132</v>
       </c>
       <c r="B335" t="s">
         <v>1025</v>
@@ -13366,7 +13372,7 @@
     <row r="336" spans="1:9">
       <c r="A336">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84775933168863071</v>
+        <v>4.2810042069489018E-2</v>
       </c>
       <c r="B336" t="s">
         <v>1028</v>
@@ -13390,7 +13396,7 @@
     <row r="337" spans="1:9">
       <c r="A337">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61072834259661468</v>
+        <v>0.14616374768974782</v>
       </c>
       <c r="B337" t="s">
         <v>1031</v>
@@ -13411,7 +13417,7 @@
     <row r="338" spans="1:9">
       <c r="A338">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94854110351928933</v>
+        <v>0.95476428122578272</v>
       </c>
       <c r="B338" t="s">
         <v>1034</v>
@@ -13432,7 +13438,7 @@
     <row r="339" spans="1:9">
       <c r="A339">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4388776956110005E-2</v>
+        <v>0.19998262042786386</v>
       </c>
       <c r="B339" t="s">
         <v>1036</v>
@@ -13456,7 +13462,7 @@
     <row r="340" spans="1:9">
       <c r="A340">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74940147842323024</v>
+        <v>0.12517321607617227</v>
       </c>
       <c r="B340" t="s">
         <v>1039</v>
@@ -13480,7 +13486,7 @@
     <row r="341" spans="1:9">
       <c r="A341">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18175276614605385</v>
+        <v>0.24158303660444325</v>
       </c>
       <c r="B341" t="s">
         <v>1042</v>
@@ -13504,7 +13510,7 @@
     <row r="342" spans="1:9">
       <c r="A342">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19810782763541523</v>
+        <v>0.53974283884244201</v>
       </c>
       <c r="B342" t="s">
         <v>1045</v>
@@ -13525,7 +13531,7 @@
     <row r="343" spans="1:9">
       <c r="A343">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83981740310806907</v>
+        <v>0.12607662054313085</v>
       </c>
       <c r="B343" t="s">
         <v>1049</v>
@@ -13543,7 +13549,7 @@
     <row r="344" spans="1:9">
       <c r="A344">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33532517227969183</v>
+        <v>0.85232143222260626</v>
       </c>
       <c r="B344" t="s">
         <v>1052</v>
@@ -13561,7 +13567,7 @@
     <row r="345" spans="1:9">
       <c r="A345">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52442249294682375</v>
+        <v>7.5491606896138541E-2</v>
       </c>
       <c r="B345" t="s">
         <v>48</v>
@@ -13576,7 +13582,7 @@
     <row r="346" spans="1:9">
       <c r="A346">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83851131294252912</v>
+        <v>0.84101471432005914</v>
       </c>
       <c r="B346" t="s">
         <v>1056</v>
@@ -13594,7 +13600,7 @@
     <row r="347" spans="1:9">
       <c r="A347">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65278455151876902</v>
+        <v>0.39318376695751911</v>
       </c>
       <c r="B347" t="s">
         <v>1059</v>
@@ -13609,7 +13615,7 @@
     <row r="348" spans="1:9">
       <c r="A348">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70065582645245006</v>
+        <v>0.78516749218869852</v>
       </c>
       <c r="B348" t="s">
         <v>1061</v>
@@ -13627,7 +13633,7 @@
     <row r="349" spans="1:9">
       <c r="A349">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97316258017911716</v>
+        <v>0.23438972730059615</v>
       </c>
       <c r="B349" t="s">
         <v>1064</v>
@@ -13642,7 +13648,7 @@
     <row r="350" spans="1:9">
       <c r="A350">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82045724999551439</v>
+        <v>0.5536988776998083</v>
       </c>
       <c r="B350" t="s">
         <v>1067</v>
@@ -13660,7 +13666,7 @@
     <row r="351" spans="1:9">
       <c r="A351">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66835609713693145</v>
+        <v>0.25073078347599842</v>
       </c>
       <c r="B351" t="s">
         <v>1070</v>
@@ -13675,7 +13681,7 @@
     <row r="352" spans="1:9">
       <c r="A352">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15391637519607482</v>
+        <v>0.73118248154795229</v>
       </c>
       <c r="B352" t="s">
         <v>257</v>
@@ -13693,7 +13699,7 @@
     <row r="353" spans="1:6">
       <c r="A353">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95900950619701175</v>
+        <v>0.72359335830924421</v>
       </c>
       <c r="B353" t="s">
         <v>1074</v>
@@ -13711,7 +13717,7 @@
     <row r="354" spans="1:6">
       <c r="A354">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59247692326944423</v>
+        <v>0.79425868667684674</v>
       </c>
       <c r="B354" t="s">
         <v>1077</v>
@@ -13726,7 +13732,7 @@
     <row r="355" spans="1:6">
       <c r="A355">
         <f t="shared" ca="1" si="5"/>
-        <v>9.18948056665988E-2</v>
+        <v>0.68132635857976453</v>
       </c>
       <c r="B355" t="s">
         <v>260</v>
@@ -13744,7 +13750,7 @@
     <row r="356" spans="1:6">
       <c r="A356">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59672746882707717</v>
+        <v>0.11413481394401559</v>
       </c>
       <c r="B356" t="s">
         <v>1081</v>
@@ -13762,7 +13768,7 @@
     <row r="357" spans="1:6">
       <c r="A357">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4763327488816369E-2</v>
+        <v>0.62416833127425697</v>
       </c>
       <c r="B357" t="s">
         <v>254</v>
@@ -13780,7 +13786,7 @@
     <row r="358" spans="1:6">
       <c r="A358">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81248279080664931</v>
+        <v>0.48573940777768165</v>
       </c>
       <c r="B358" t="s">
         <v>251</v>
@@ -13798,7 +13804,7 @@
     <row r="359" spans="1:6">
       <c r="A359">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80317495983496867</v>
+        <v>0.59701388432541047</v>
       </c>
       <c r="B359" t="s">
         <v>1088</v>
@@ -13813,7 +13819,7 @@
     <row r="360" spans="1:6">
       <c r="A360">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71727290693215839</v>
+        <v>3.7079533996170921E-2</v>
       </c>
       <c r="B360" t="s">
         <v>1090</v>
@@ -13831,7 +13837,7 @@
     <row r="361" spans="1:6">
       <c r="A361">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86955873228802427</v>
+        <v>0.9092207613646599</v>
       </c>
       <c r="B361" t="s">
         <v>1093</v>
@@ -13849,7 +13855,7 @@
     <row r="362" spans="1:6">
       <c r="A362">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30859762501649779</v>
+        <v>7.7767311352857638E-3</v>
       </c>
       <c r="B362" t="s">
         <v>1096</v>
@@ -13867,7 +13873,7 @@
     <row r="363" spans="1:6">
       <c r="A363">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71828260088465157</v>
+        <v>4.928432184754028E-3</v>
       </c>
       <c r="B363" t="s">
         <v>1099</v>
@@ -13885,7 +13891,7 @@
     <row r="364" spans="1:6">
       <c r="A364">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22097845479844802</v>
+        <v>0.15361872877016325</v>
       </c>
       <c r="B364" t="s">
         <v>1102</v>
@@ -13903,7 +13909,7 @@
     <row r="365" spans="1:6">
       <c r="A365">
         <f t="shared" ref="A365:A428" ca="1" si="6">RAND()</f>
-        <v>0.33686919348750832</v>
+        <v>0.10167033213512944</v>
       </c>
       <c r="B365" t="s">
         <v>1105</v>
@@ -13921,7 +13927,7 @@
     <row r="366" spans="1:6">
       <c r="A366">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69876225483385646</v>
+        <v>0.54063356456391964</v>
       </c>
       <c r="B366" t="s">
         <v>1108</v>
@@ -13939,7 +13945,7 @@
     <row r="367" spans="1:6">
       <c r="A367">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26276109669188241</v>
+        <v>2.1752115456091903E-2</v>
       </c>
       <c r="B367" t="s">
         <v>1111</v>
@@ -13957,7 +13963,7 @@
     <row r="368" spans="1:6">
       <c r="A368">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62625258318137</v>
+        <v>7.5663900242706528E-2</v>
       </c>
       <c r="B368" t="s">
         <v>1114</v>
@@ -13972,7 +13978,7 @@
     <row r="369" spans="1:9">
       <c r="A369">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21128881510709718</v>
+        <v>0.31266728856880377</v>
       </c>
       <c r="B369" t="s">
         <v>1116</v>
@@ -13987,7 +13993,7 @@
     <row r="370" spans="1:9">
       <c r="A370">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65609177034212018</v>
+        <v>0.47795036956839365</v>
       </c>
       <c r="B370" t="s">
         <v>1118</v>
@@ -14002,7 +14008,7 @@
     <row r="371" spans="1:9">
       <c r="A371">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66534894762824592</v>
+        <v>0.99154675115382385</v>
       </c>
       <c r="B371" t="s">
         <v>1120</v>
@@ -14020,7 +14026,7 @@
     <row r="372" spans="1:9">
       <c r="A372">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46044768454867602</v>
+        <v>0.15925466714250214</v>
       </c>
       <c r="B372" t="s">
         <v>1123</v>
@@ -14038,7 +14044,7 @@
     <row r="373" spans="1:9">
       <c r="A373">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56560320088996696</v>
+        <v>0.20239399058689123</v>
       </c>
       <c r="B373" t="s">
         <v>1126</v>
@@ -14056,7 +14062,7 @@
     <row r="374" spans="1:9">
       <c r="A374">
         <f t="shared" ca="1" si="6"/>
-        <v>0.90314359973758074</v>
+        <v>0.75843305534514016</v>
       </c>
       <c r="B374" t="s">
         <v>1128</v>
@@ -14074,7 +14080,7 @@
     <row r="375" spans="1:9">
       <c r="A375">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83824011693703881</v>
+        <v>0.20215365192867785</v>
       </c>
       <c r="B375" t="s">
         <v>1131</v>
@@ -14092,7 +14098,7 @@
     <row r="376" spans="1:9">
       <c r="A376">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18236969923973445</v>
+        <v>8.8097176437490265E-2</v>
       </c>
       <c r="B376" t="s">
         <v>1134</v>
@@ -14110,7 +14116,7 @@
     <row r="377" spans="1:9">
       <c r="A377">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23140524529357998</v>
+        <v>0.25042987167281761</v>
       </c>
       <c r="B377" t="s">
         <v>1138</v>
@@ -14131,7 +14137,7 @@
     <row r="378" spans="1:9">
       <c r="A378">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30156389434944131</v>
+        <v>0.67616225506817185</v>
       </c>
       <c r="B378" t="s">
         <v>1141</v>
@@ -14149,7 +14155,7 @@
     <row r="379" spans="1:9">
       <c r="A379">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17904746951871509</v>
+        <v>0.63965398848594024</v>
       </c>
       <c r="B379" t="s">
         <v>1143</v>
@@ -14170,7 +14176,7 @@
     <row r="380" spans="1:9">
       <c r="A380">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81538115302840553</v>
+        <v>0.14123470625824786</v>
       </c>
       <c r="B380" t="s">
         <v>1146</v>
@@ -14191,7 +14197,7 @@
     <row r="381" spans="1:9">
       <c r="A381">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56225925702210355</v>
+        <v>0.35108518646789044</v>
       </c>
       <c r="B381" t="s">
         <v>1149</v>
@@ -14212,7 +14218,7 @@
     <row r="382" spans="1:9">
       <c r="A382">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62062167464735596</v>
+        <v>0.86288856736635233</v>
       </c>
       <c r="B382" t="s">
         <v>583</v>
@@ -14233,7 +14239,7 @@
     <row r="383" spans="1:9">
       <c r="A383">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49086129970236336</v>
+        <v>0.92551100675403819</v>
       </c>
       <c r="B383" t="s">
         <v>1154</v>
@@ -14254,7 +14260,7 @@
     <row r="384" spans="1:9">
       <c r="A384">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2372117683553735</v>
+        <v>0.38030345459612924</v>
       </c>
       <c r="B384" t="s">
         <v>1157</v>
@@ -14275,7 +14281,7 @@
     <row r="385" spans="1:9">
       <c r="A385">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84178542493553909</v>
+        <v>0.62094308931031927</v>
       </c>
       <c r="B385" t="s">
         <v>1160</v>
@@ -14296,7 +14302,7 @@
     <row r="386" spans="1:9">
       <c r="A386">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59297274536636158</v>
+        <v>0.98431978314349866</v>
       </c>
       <c r="B386" t="s">
         <v>1163</v>
@@ -14317,7 +14323,7 @@
     <row r="387" spans="1:9">
       <c r="A387">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17535630882247577</v>
+        <v>0.93994638995053492</v>
       </c>
       <c r="B387" t="s">
         <v>1166</v>
@@ -14335,7 +14341,7 @@
     <row r="388" spans="1:9">
       <c r="A388">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18569693649019248</v>
+        <v>0.90845109802851121</v>
       </c>
       <c r="B388" t="s">
         <v>1168</v>
@@ -14359,7 +14365,7 @@
     <row r="389" spans="1:9">
       <c r="A389">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67923230722166261</v>
+        <v>9.719224832126272E-2</v>
       </c>
       <c r="B389" t="s">
         <v>1171</v>
@@ -14383,7 +14389,7 @@
     <row r="390" spans="1:9">
       <c r="A390">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39703073013424428</v>
+        <v>0.56868881277846584</v>
       </c>
       <c r="B390" t="s">
         <v>1174</v>
@@ -14407,7 +14413,7 @@
     <row r="391" spans="1:9">
       <c r="A391">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43001394548583571</v>
+        <v>0.35710294292754952</v>
       </c>
       <c r="B391" t="s">
         <v>1177</v>
@@ -14431,7 +14437,7 @@
     <row r="392" spans="1:9">
       <c r="A392">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56435626679062045</v>
+        <v>0.19522037258582337</v>
       </c>
       <c r="B392" t="s">
         <v>1180</v>
@@ -14452,7 +14458,7 @@
     <row r="393" spans="1:9">
       <c r="A393">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8012107799498067E-2</v>
+        <v>0.18534991254404032</v>
       </c>
       <c r="B393" t="s">
         <v>1183</v>
@@ -14473,7 +14479,7 @@
     <row r="394" spans="1:9">
       <c r="A394">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66256212981374596</v>
+        <v>0.15458974180530971</v>
       </c>
       <c r="B394" t="s">
         <v>1186</v>
@@ -14494,7 +14500,7 @@
     <row r="395" spans="1:9">
       <c r="A395">
         <f t="shared" ca="1" si="6"/>
-        <v>0.614009220542451</v>
+        <v>0.49311148120977433</v>
       </c>
       <c r="B395" t="s">
         <v>1189</v>
@@ -14518,7 +14524,7 @@
     <row r="396" spans="1:9">
       <c r="A396">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17099262796480841</v>
+        <v>3.721397058238507E-2</v>
       </c>
       <c r="B396" t="s">
         <v>1192</v>
@@ -14542,7 +14548,7 @@
     <row r="397" spans="1:9">
       <c r="A397">
         <f t="shared" ca="1" si="6"/>
-        <v>0.96786841084428032</v>
+        <v>0.94408481147850543</v>
       </c>
       <c r="B397" t="s">
         <v>1195</v>
@@ -14560,7 +14566,7 @@
     <row r="398" spans="1:9">
       <c r="A398">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14330650623682084</v>
+        <v>0.17196172291642764</v>
       </c>
       <c r="B398" t="s">
         <v>1197</v>
@@ -14578,7 +14584,7 @@
     <row r="399" spans="1:9">
       <c r="A399">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23854721969647019</v>
+        <v>0.72833259441579157</v>
       </c>
       <c r="B399" t="s">
         <v>1199</v>
@@ -14602,7 +14608,7 @@
     <row r="400" spans="1:9">
       <c r="A400">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83843897487997399</v>
+        <v>0.55490708645886866</v>
       </c>
       <c r="B400" t="s">
         <v>863</v>
@@ -14617,7 +14623,7 @@
     <row r="401" spans="1:6">
       <c r="A401">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75095102230631572</v>
+        <v>0.32388361206119476</v>
       </c>
       <c r="B401" t="s">
         <v>1203</v>
@@ -14632,7 +14638,7 @@
     <row r="402" spans="1:6">
       <c r="A402">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17744839111187094</v>
+        <v>0.10074431577345266</v>
       </c>
       <c r="B402" t="s">
         <v>1205</v>
@@ -14650,7 +14656,7 @@
     <row r="403" spans="1:6">
       <c r="A403">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22963610564581849</v>
+        <v>0.23043249117198794</v>
       </c>
       <c r="B403" t="s">
         <v>1208</v>
@@ -14668,7 +14674,7 @@
     <row r="404" spans="1:6">
       <c r="A404">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38460136719962057</v>
+        <v>0.36695459719137069</v>
       </c>
       <c r="B404" t="s">
         <v>1211</v>
@@ -14683,7 +14689,7 @@
     <row r="405" spans="1:6">
       <c r="A405">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5510628365240382</v>
+        <v>0.79651469558690857</v>
       </c>
       <c r="B405" t="s">
         <v>1213</v>
@@ -14701,7 +14707,7 @@
     <row r="406" spans="1:6">
       <c r="A406">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86946028042165358</v>
+        <v>0.36893464413963162</v>
       </c>
       <c r="B406" t="s">
         <v>1216</v>
@@ -14716,7 +14722,7 @@
     <row r="407" spans="1:6">
       <c r="A407">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68272082427028202</v>
+        <v>5.932028680955137E-2</v>
       </c>
       <c r="B407" t="s">
         <v>1219</v>
@@ -14731,7 +14737,7 @@
     <row r="408" spans="1:6">
       <c r="A408">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64608282800110783</v>
+        <v>0.72510150753135572</v>
       </c>
       <c r="B408" t="s">
         <v>1221</v>
@@ -14749,7 +14755,7 @@
     <row r="409" spans="1:6">
       <c r="A409">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59129722344036972</v>
+        <v>0.93205868469585917</v>
       </c>
       <c r="B409" t="s">
         <v>226</v>
@@ -14767,7 +14773,7 @@
     <row r="410" spans="1:6">
       <c r="A410">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10765324539060284</v>
+        <v>0.39792594040220208</v>
       </c>
       <c r="B410" t="s">
         <v>1226</v>
@@ -14782,7 +14788,7 @@
     <row r="411" spans="1:6">
       <c r="A411">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89613318419454679</v>
+        <v>0.79429073210827672</v>
       </c>
       <c r="B411" t="s">
         <v>1228</v>
@@ -14797,7 +14803,7 @@
     <row r="412" spans="1:6">
       <c r="A412">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3649842838617103E-2</v>
+        <v>0.68087995475957785</v>
       </c>
       <c r="B412" t="s">
         <v>1230</v>
@@ -14815,7 +14821,7 @@
     <row r="413" spans="1:6">
       <c r="A413">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94906511239715119</v>
+        <v>0.96202655724773978</v>
       </c>
       <c r="B413" t="s">
         <v>1233</v>
@@ -14833,7 +14839,7 @@
     <row r="414" spans="1:6">
       <c r="A414">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82938903736489544</v>
+        <v>0.9571263752820619</v>
       </c>
       <c r="B414" t="s">
         <v>1236</v>
@@ -14851,7 +14857,7 @@
     <row r="415" spans="1:6">
       <c r="A415">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59880176004400487</v>
+        <v>0.97356163384510219</v>
       </c>
       <c r="B415" t="s">
         <v>1239</v>
@@ -14869,7 +14875,7 @@
     <row r="416" spans="1:6">
       <c r="A416">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27541172541782788</v>
+        <v>0.24532155533614164</v>
       </c>
       <c r="B416" t="s">
         <v>220</v>
@@ -14887,7 +14893,7 @@
     <row r="417" spans="1:9">
       <c r="A417">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10136949361608194</v>
+        <v>2.4584730745387584E-2</v>
       </c>
       <c r="B417" t="s">
         <v>238</v>
@@ -14905,7 +14911,7 @@
     <row r="418" spans="1:9">
       <c r="A418">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95121098651207359</v>
+        <v>0.82956441856024188</v>
       </c>
       <c r="B418" t="s">
         <v>1246</v>
@@ -14923,7 +14929,7 @@
     <row r="419" spans="1:9">
       <c r="A419">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81887709222768135</v>
+        <v>0.83109651946350771</v>
       </c>
       <c r="B419" t="s">
         <v>1249</v>
@@ -14941,7 +14947,7 @@
     <row r="420" spans="1:9">
       <c r="A420">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65736545354571219</v>
+        <v>0.98713124878162828</v>
       </c>
       <c r="B420" t="s">
         <v>1252</v>
@@ -14956,7 +14962,7 @@
     <row r="421" spans="1:9">
       <c r="A421">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97505247842515608</v>
+        <v>0.25358312792365623</v>
       </c>
       <c r="B421" t="s">
         <v>1254</v>
@@ -14974,7 +14980,7 @@
     <row r="422" spans="1:9">
       <c r="A422">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95139421214279152</v>
+        <v>0.82844211137513668</v>
       </c>
       <c r="B422" t="s">
         <v>1257</v>
@@ -14992,7 +14998,7 @@
     <row r="423" spans="1:9">
       <c r="A423">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54741655937932454</v>
+        <v>1.7107750896204754E-3</v>
       </c>
       <c r="B423" t="s">
         <v>1260</v>
@@ -15007,7 +15013,7 @@
     <row r="424" spans="1:9">
       <c r="A424">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63245758961698206</v>
+        <v>0.17000536139017797</v>
       </c>
       <c r="B424" t="s">
         <v>1262</v>
@@ -15022,7 +15028,7 @@
     <row r="425" spans="1:9">
       <c r="A425">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53066315898690242</v>
+        <v>0.67918551245415437</v>
       </c>
       <c r="B425" t="s">
         <v>1264</v>
@@ -15037,7 +15043,7 @@
     <row r="426" spans="1:9">
       <c r="A426">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83785061898896829</v>
+        <v>0.23941118192808908</v>
       </c>
       <c r="B426" t="s">
         <v>1266</v>
@@ -15055,7 +15061,7 @@
     <row r="427" spans="1:9">
       <c r="A427">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73132559094429994</v>
+        <v>0.15197817115055001</v>
       </c>
       <c r="B427" t="s">
         <v>1269</v>
@@ -15070,7 +15076,7 @@
     <row r="428" spans="1:9">
       <c r="A428">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60019885676636697</v>
+        <v>0.67789342353358673</v>
       </c>
       <c r="B428" t="s">
         <v>1271</v>
@@ -15088,7 +15094,7 @@
     <row r="429" spans="1:9">
       <c r="A429">
         <f t="shared" ref="A429:A492" ca="1" si="7">RAND()</f>
-        <v>0.47514617968707729</v>
+        <v>0.34945880678495045</v>
       </c>
       <c r="B429" t="s">
         <v>1274</v>
@@ -15106,7 +15112,7 @@
     <row r="430" spans="1:9">
       <c r="A430">
         <f t="shared" ca="1" si="7"/>
-        <v>0.63829280803540345</v>
+        <v>0.74278445613549371</v>
       </c>
       <c r="B430" t="s">
         <v>1588</v>
@@ -15118,7 +15124,7 @@
     <row r="431" spans="1:9">
       <c r="A431">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48441340130680133</v>
+        <v>0.12076713846757969</v>
       </c>
       <c r="B431" t="s">
         <v>1277</v>
@@ -15139,7 +15145,7 @@
     <row r="432" spans="1:9">
       <c r="A432">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37321766246454391</v>
+        <v>0.32410638360435073</v>
       </c>
       <c r="B432" t="s">
         <v>1280</v>
@@ -15160,7 +15166,7 @@
     <row r="433" spans="1:9">
       <c r="A433">
         <f t="shared" ca="1" si="7"/>
-        <v>0.7417411562659334</v>
+        <v>0.57978388830726912</v>
       </c>
       <c r="B433" t="s">
         <v>1283</v>
@@ -15181,7 +15187,7 @@
     <row r="434" spans="1:9">
       <c r="A434">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26850284168065641</v>
+        <v>0.49970503840571634</v>
       </c>
       <c r="B434" t="s">
         <v>1286</v>
@@ -15202,7 +15208,7 @@
     <row r="435" spans="1:9">
       <c r="A435">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13641976295117997</v>
+        <v>0.63647960169913964</v>
       </c>
       <c r="B435" t="s">
         <v>1289</v>
@@ -15226,7 +15232,7 @@
     <row r="436" spans="1:9">
       <c r="A436">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36404999487381828</v>
+        <v>0.49511648020824561</v>
       </c>
       <c r="B436" t="s">
         <v>1292</v>
@@ -15247,7 +15253,7 @@
     <row r="437" spans="1:9">
       <c r="A437">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3485959559835321</v>
+        <v>0.8485817495891923</v>
       </c>
       <c r="B437" t="s">
         <v>712</v>
@@ -15268,7 +15274,7 @@
     <row r="438" spans="1:9">
       <c r="A438">
         <f t="shared" ca="1" si="7"/>
-        <v>0.77870924655714147</v>
+        <v>0.89833465604772667</v>
       </c>
       <c r="B438" t="s">
         <v>1296</v>
@@ -15289,7 +15295,7 @@
     <row r="439" spans="1:9">
       <c r="A439">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56348145982956888</v>
+        <v>0.87048542522253447</v>
       </c>
       <c r="B439" t="s">
         <v>1299</v>
@@ -15310,7 +15316,7 @@
     <row r="440" spans="1:9">
       <c r="A440">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21678222521527846</v>
+        <v>0.66257295115469639</v>
       </c>
       <c r="B440" t="s">
         <v>1189</v>
@@ -15334,7 +15340,7 @@
     <row r="441" spans="1:9">
       <c r="A441">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20386682631288655</v>
+        <v>0.38931797267747947</v>
       </c>
       <c r="B441" t="s">
         <v>1304</v>
@@ -15358,7 +15364,7 @@
     <row r="442" spans="1:9">
       <c r="A442">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73807669021099742</v>
+        <v>0.31171420887666512</v>
       </c>
       <c r="B442" t="s">
         <v>1307</v>
@@ -15382,7 +15388,7 @@
     <row r="443" spans="1:9">
       <c r="A443">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84783605282613894</v>
+        <v>0.7493639649577909</v>
       </c>
       <c r="B443" t="s">
         <v>1310</v>
@@ -15406,7 +15412,7 @@
     <row r="444" spans="1:9">
       <c r="A444">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30099096258138236</v>
+        <v>0.83372487428629416</v>
       </c>
       <c r="B444" t="s">
         <v>1313</v>
@@ -15430,7 +15436,7 @@
     <row r="445" spans="1:9">
       <c r="A445">
         <f t="shared" ca="1" si="7"/>
-        <v>0.610838040287776</v>
+        <v>0.8383234481561771</v>
       </c>
       <c r="B445" t="s">
         <v>1316</v>
@@ -15454,7 +15460,7 @@
     <row r="446" spans="1:9">
       <c r="A446">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27531507050704507</v>
+        <v>0.99850812248064691</v>
       </c>
       <c r="B446" t="s">
         <v>1319</v>
@@ -15478,7 +15484,7 @@
     <row r="447" spans="1:9">
       <c r="A447">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2475999442518747</v>
+        <v>0.158833396653147</v>
       </c>
       <c r="B447" t="s">
         <v>1322</v>
@@ -15502,7 +15508,7 @@
     <row r="448" spans="1:9">
       <c r="A448">
         <f t="shared" ca="1" si="7"/>
-        <v>9.9592267848485072E-3</v>
+        <v>0.28800412881812587</v>
       </c>
       <c r="B448" t="s">
         <v>1325</v>
@@ -15526,7 +15532,7 @@
     <row r="449" spans="1:9">
       <c r="A449">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73437233598963703</v>
+        <v>8.2458788354536128E-2</v>
       </c>
       <c r="B449" t="s">
         <v>1328</v>
@@ -15550,7 +15556,7 @@
     <row r="450" spans="1:9">
       <c r="A450">
         <f t="shared" ca="1" si="7"/>
-        <v>0.70318454738477598</v>
+        <v>1.3338035238450785E-2</v>
       </c>
       <c r="B450" t="s">
         <v>1331</v>
@@ -15571,7 +15577,7 @@
     <row r="451" spans="1:9">
       <c r="A451">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18597348360046306</v>
+        <v>0.77996075022751155</v>
       </c>
       <c r="B451" t="s">
         <v>1334</v>
@@ -15586,7 +15592,7 @@
     <row r="452" spans="1:9">
       <c r="A452">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89237005798488478</v>
+        <v>0.45565492577551125</v>
       </c>
       <c r="B452" t="s">
         <v>1336</v>
@@ -15601,7 +15607,7 @@
     <row r="453" spans="1:9">
       <c r="A453">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88534482037783724</v>
+        <v>0.48032448451648257</v>
       </c>
       <c r="B453" t="s">
         <v>1338</v>
@@ -15616,7 +15622,7 @@
     <row r="454" spans="1:9">
       <c r="A454">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3376693739207044</v>
+        <v>0.40811985294348851</v>
       </c>
       <c r="B454" t="s">
         <v>1340</v>
@@ -15634,7 +15640,7 @@
     <row r="455" spans="1:9">
       <c r="A455">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57284495399883872</v>
+        <v>0.86067195258174467</v>
       </c>
       <c r="B455" t="s">
         <v>1343</v>
@@ -15652,7 +15658,7 @@
     <row r="456" spans="1:9">
       <c r="A456">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4136283408785334</v>
+        <v>0.84102781866271548</v>
       </c>
       <c r="B456" t="s">
         <v>1346</v>
@@ -15667,7 +15673,7 @@
     <row r="457" spans="1:9">
       <c r="A457">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9075855754214333E-2</v>
+        <v>0.60911484715048825</v>
       </c>
       <c r="B457" t="s">
         <v>1348</v>
@@ -15682,7 +15688,7 @@
     <row r="458" spans="1:9">
       <c r="A458">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17782674816916511</v>
+        <v>0.78785321659843577</v>
       </c>
       <c r="B458" t="s">
         <v>1350</v>
@@ -15697,7 +15703,7 @@
     <row r="459" spans="1:9">
       <c r="A459">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72049641454575308</v>
+        <v>0.17595915073272084</v>
       </c>
       <c r="B459" t="s">
         <v>1371</v>
@@ -15712,7 +15718,7 @@
     <row r="460" spans="1:9">
       <c r="A460">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44533307565012081</v>
+        <v>0.39928151132225609</v>
       </c>
       <c r="B460" t="s">
         <v>1373</v>
@@ -15727,7 +15733,7 @@
     <row r="461" spans="1:9">
       <c r="A461">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2024455346680116E-2</v>
+        <v>0.6801931953149416</v>
       </c>
       <c r="B461" t="s">
         <v>1375</v>
@@ -15745,7 +15751,7 @@
     <row r="462" spans="1:9">
       <c r="A462">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30479733264826825</v>
+        <v>0.4135275506116598</v>
       </c>
       <c r="B462" t="s">
         <v>1378</v>
@@ -15763,7 +15769,7 @@
     <row r="463" spans="1:9">
       <c r="A463">
         <f t="shared" ca="1" si="7"/>
-        <v>0.87896860106111574</v>
+        <v>0.27873286338104719</v>
       </c>
       <c r="B463" t="s">
         <v>1381</v>
@@ -15778,7 +15784,7 @@
     <row r="464" spans="1:9">
       <c r="A464">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68681595761625647</v>
+        <v>0.6014428378245058</v>
       </c>
       <c r="B464" t="s">
         <v>1383</v>
@@ -15796,7 +15802,7 @@
     <row r="465" spans="1:9">
       <c r="A465">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94860505089330871</v>
+        <v>0.1372496332867148</v>
       </c>
       <c r="B465" t="s">
         <v>1386</v>
@@ -15814,7 +15820,7 @@
     <row r="466" spans="1:9">
       <c r="A466">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21099131360199586</v>
+        <v>0.4577862162029267</v>
       </c>
       <c r="B466" t="s">
         <v>1389</v>
@@ -15832,7 +15838,7 @@
     <row r="467" spans="1:9">
       <c r="A467">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25689567848415196</v>
+        <v>0.47603552916057656</v>
       </c>
       <c r="B467" t="s">
         <v>1392</v>
@@ -15850,7 +15856,7 @@
     <row r="468" spans="1:9">
       <c r="A468">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39202389838432439</v>
+        <v>8.6792043175178968E-2</v>
       </c>
       <c r="B468" t="s">
         <v>1395</v>
@@ -15868,7 +15874,7 @@
     <row r="469" spans="1:9">
       <c r="A469">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96484583732783136</v>
+        <v>0.79150005618480268</v>
       </c>
       <c r="B469" t="s">
         <v>1398</v>
@@ -15886,7 +15892,7 @@
     <row r="470" spans="1:9">
       <c r="A470">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64837901987333701</v>
+        <v>0.12343248703665533</v>
       </c>
       <c r="B470" t="s">
         <v>1401</v>
@@ -15904,7 +15910,7 @@
     <row r="471" spans="1:9">
       <c r="A471">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4074108120389845E-2</v>
+        <v>0.35861147926878001</v>
       </c>
       <c r="B471" t="s">
         <v>1404</v>
@@ -15922,7 +15928,7 @@
     <row r="472" spans="1:9">
       <c r="A472">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94020484760264811</v>
+        <v>0.12864024587084122</v>
       </c>
       <c r="B472" t="s">
         <v>1407</v>
@@ -15937,7 +15943,7 @@
     <row r="473" spans="1:9">
       <c r="A473">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15198322556331267</v>
+        <v>0.45033239989765705</v>
       </c>
       <c r="B473" t="s">
         <v>1409</v>
@@ -15955,7 +15961,7 @@
     <row r="474" spans="1:9">
       <c r="A474">
         <f t="shared" ca="1" si="7"/>
-        <v>0.50039778219519926</v>
+        <v>1.4116942900668561E-2</v>
       </c>
       <c r="B474" t="s">
         <v>1412</v>
@@ -15973,7 +15979,7 @@
     <row r="475" spans="1:9">
       <c r="A475">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85787625018621638</v>
+        <v>0.71949692049851399</v>
       </c>
       <c r="B475" t="s">
         <v>1415</v>
@@ -15991,7 +15997,7 @@
     <row r="476" spans="1:9">
       <c r="A476">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24435238897726819</v>
+        <v>0.38538915173791866</v>
       </c>
       <c r="B476" t="s">
         <v>165</v>
@@ -16009,7 +16015,7 @@
     <row r="477" spans="1:9">
       <c r="A477">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75029925690149324</v>
+        <v>0.80357318734751026</v>
       </c>
       <c r="B477" t="s">
         <v>1420</v>
@@ -16024,7 +16030,7 @@
     <row r="478" spans="1:9">
       <c r="A478">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16070687544734519</v>
+        <v>0.16673555245880012</v>
       </c>
       <c r="B478" t="s">
         <v>1422</v>
@@ -16042,7 +16048,7 @@
     <row r="479" spans="1:9">
       <c r="A479">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18532602410440469</v>
+        <v>0.86214611519043338</v>
       </c>
       <c r="B479" t="s">
         <v>1426</v>
@@ -16063,7 +16069,7 @@
     <row r="480" spans="1:9">
       <c r="A480">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8896341281969984E-2</v>
+        <v>0.57236902687230318</v>
       </c>
       <c r="B480" t="s">
         <v>1429</v>
@@ -16084,7 +16090,7 @@
     <row r="481" spans="1:9">
       <c r="A481">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71768536429450724</v>
+        <v>7.581213180414037E-2</v>
       </c>
       <c r="B481" t="s">
         <v>1432</v>
@@ -16105,7 +16111,7 @@
     <row r="482" spans="1:9">
       <c r="A482">
         <f t="shared" ca="1" si="7"/>
-        <v>0.87413650564819956</v>
+        <v>0.32475451234990704</v>
       </c>
       <c r="B482" t="s">
         <v>1435</v>
@@ -16126,7 +16132,7 @@
     <row r="483" spans="1:9">
       <c r="A483">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64079967628107726</v>
+        <v>0.56221750652121683</v>
       </c>
       <c r="B483" t="s">
         <v>1435</v>
@@ -16147,7 +16153,7 @@
     <row r="484" spans="1:9">
       <c r="A484">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21493883769561573</v>
+        <v>0.90257921087175796</v>
       </c>
       <c r="B484" t="s">
         <v>1439</v>
@@ -16168,7 +16174,7 @@
     <row r="485" spans="1:9">
       <c r="A485">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85150968001108651</v>
+        <v>0.82919526105797703</v>
       </c>
       <c r="B485" t="s">
         <v>1442</v>
@@ -16186,7 +16192,7 @@
     <row r="486" spans="1:9">
       <c r="A486">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75324340529898903</v>
+        <v>0.6487099937426013</v>
       </c>
       <c r="B486" t="s">
         <v>1444</v>
@@ -16204,7 +16210,7 @@
     <row r="487" spans="1:9">
       <c r="A487">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42771810926244391</v>
+        <v>0.62022317780065295</v>
       </c>
       <c r="B487" t="s">
         <v>1446</v>
@@ -16222,7 +16228,7 @@
     <row r="488" spans="1:9">
       <c r="A488">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95271638856256757</v>
+        <v>0.93435108547447598</v>
       </c>
       <c r="B488" t="s">
         <v>1448</v>
@@ -16240,7 +16246,7 @@
     <row r="489" spans="1:9">
       <c r="A489">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54297556152491055</v>
+        <v>0.72741500376364721</v>
       </c>
       <c r="B489" t="s">
         <v>1450</v>
@@ -16261,7 +16267,7 @@
     <row r="490" spans="1:9">
       <c r="A490">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45479419243100649</v>
+        <v>0.65545762863286816</v>
       </c>
       <c r="B490" t="s">
         <v>1453</v>
@@ -16282,7 +16288,7 @@
     <row r="491" spans="1:9">
       <c r="A491">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22975336830926352</v>
+        <v>8.4199312566796802E-2</v>
       </c>
       <c r="B491" t="s">
         <v>1456</v>
@@ -16303,7 +16309,7 @@
     <row r="492" spans="1:9">
       <c r="A492">
         <f t="shared" ca="1" si="7"/>
-        <v>0.40261796381982196</v>
+        <v>0.78536942739129323</v>
       </c>
       <c r="B492" t="s">
         <v>1459</v>
@@ -16327,7 +16333,7 @@
     <row r="493" spans="1:9">
       <c r="A493">
         <f t="shared" ref="A493:A512" ca="1" si="8">RAND()</f>
-        <v>0.34461564553534119</v>
+        <v>0.5747943687078515</v>
       </c>
       <c r="B493" t="s">
         <v>1462</v>
@@ -16351,7 +16357,7 @@
     <row r="494" spans="1:9">
       <c r="A494">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15754209694444743</v>
+        <v>0.79522323052125377</v>
       </c>
       <c r="B494" t="s">
         <v>1465</v>
@@ -16372,7 +16378,7 @@
     <row r="495" spans="1:9">
       <c r="A495">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2778173941819897</v>
+        <v>0.350625238953017</v>
       </c>
       <c r="B495" t="s">
         <v>1468</v>
@@ -16393,7 +16399,7 @@
     <row r="496" spans="1:9">
       <c r="A496">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9765903492292477</v>
+        <v>0.88131844513290458</v>
       </c>
       <c r="B496" t="s">
         <v>1471</v>
@@ -16417,7 +16423,7 @@
     <row r="497" spans="1:9">
       <c r="A497">
         <f t="shared" ca="1" si="8"/>
-        <v>0.8539940170287319</v>
+        <v>0.24059657309635907</v>
       </c>
       <c r="B497" t="s">
         <v>1474</v>
@@ -16438,7 +16444,7 @@
     <row r="498" spans="1:9">
       <c r="A498">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71898234202882472</v>
+        <v>0.72626088218015727</v>
       </c>
       <c r="B498" t="s">
         <v>1477</v>
@@ -16459,7 +16465,7 @@
     <row r="499" spans="1:9">
       <c r="A499">
         <f t="shared" ca="1" si="8"/>
-        <v>0.94484781075707069</v>
+        <v>0.85146302340376345</v>
       </c>
       <c r="B499" t="s">
         <v>1480</v>
@@ -16483,7 +16489,7 @@
     <row r="500" spans="1:9">
       <c r="A500">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34778497765953797</v>
+        <v>8.176616223723232E-3</v>
       </c>
       <c r="B500" t="s">
         <v>1483</v>
@@ -16498,7 +16504,7 @@
     <row r="501" spans="1:9">
       <c r="A501">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32077113686838998</v>
+        <v>0.87022582000218962</v>
       </c>
       <c r="B501" t="s">
         <v>1485</v>
@@ -16516,7 +16522,7 @@
     <row r="502" spans="1:9">
       <c r="A502">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21812114415520611</v>
+        <v>5.6704250671160583E-2</v>
       </c>
       <c r="B502" t="s">
         <v>1488</v>
@@ -16531,7 +16537,7 @@
     <row r="503" spans="1:9">
       <c r="A503">
         <f t="shared" ca="1" si="8"/>
-        <v>0.95168051848633572</v>
+        <v>0.95314684595305021</v>
       </c>
       <c r="B503" t="s">
         <v>1490</v>
@@ -16546,7 +16552,7 @@
     <row r="504" spans="1:9">
       <c r="A504">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7783685046942894E-2</v>
+        <v>0.25508205752281232</v>
       </c>
       <c r="B504" t="s">
         <v>1492</v>
@@ -16564,7 +16570,7 @@
     <row r="505" spans="1:9">
       <c r="A505">
         <f t="shared" ca="1" si="8"/>
-        <v>0.69323349808857504</v>
+        <v>0.44064611954178501</v>
       </c>
       <c r="B505" t="s">
         <v>1495</v>
@@ -16582,7 +16588,7 @@
     <row r="506" spans="1:9">
       <c r="A506">
         <f t="shared" ca="1" si="8"/>
-        <v>0.80064660986596836</v>
+        <v>0.17600554443800787</v>
       </c>
       <c r="B506" t="s">
         <v>1498</v>
@@ -16597,7 +16603,7 @@
     <row r="507" spans="1:9">
       <c r="A507">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9892149418157965</v>
+        <v>8.1736662839840712E-2</v>
       </c>
       <c r="B507" t="s">
         <v>1500</v>
@@ -16612,7 +16618,7 @@
     <row r="508" spans="1:9">
       <c r="A508">
         <f t="shared" ca="1" si="8"/>
-        <v>0.67539538604271532</v>
+        <v>0.6980028583440302</v>
       </c>
       <c r="B508" t="s">
         <v>1502</v>
@@ -16630,7 +16636,7 @@
     <row r="509" spans="1:9">
       <c r="A509">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63975402401158965</v>
+        <v>0.70958691257898721</v>
       </c>
       <c r="B509" t="s">
         <v>1505</v>
@@ -16645,7 +16651,7 @@
     <row r="510" spans="1:9">
       <c r="A510">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82541184926050404</v>
+        <v>0.14534427639747594</v>
       </c>
       <c r="B510" t="s">
         <v>1507</v>
@@ -16660,7 +16666,7 @@
     <row r="511" spans="1:9">
       <c r="A511">
         <f t="shared" ca="1" si="8"/>
-        <v>0.77222709419780911</v>
+        <v>0.28332745658769565</v>
       </c>
       <c r="B511" t="s">
         <v>1509</v>
@@ -16678,7 +16684,7 @@
     <row r="512" spans="1:9">
       <c r="A512">
         <f t="shared" ca="1" si="8"/>
-        <v>0.65228904766089801</v>
+        <v>0.57667419749677662</v>
       </c>
       <c r="B512" t="s">
         <v>1512</v>
@@ -16699,7 +16705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16717,13 +16723,13 @@
     <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="F1" t="s">
         <v>57</v>
       </c>
@@ -17149,12 +17155,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" t="s">
         <v>61</v>
       </c>
@@ -17385,12 +17391,12 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
       <c r="E46" t="s">
         <v>61</v>
       </c>
@@ -17546,12 +17552,12 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
       <c r="E57" t="s">
         <v>61</v>
       </c>
@@ -17677,12 +17683,12 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
       <c r="E66" t="s">
         <v>61</v>
       </c>
@@ -17785,17 +17791,17 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A66:D66"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -17807,21 +17813,21 @@
     <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -17980,12 +17986,12 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
@@ -18060,12 +18066,12 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
@@ -18250,12 +18256,12 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
@@ -18318,12 +18324,12 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
@@ -18434,12 +18440,12 @@
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="15">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
@@ -18502,12 +18508,12 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="15">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
@@ -18534,12 +18540,12 @@
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="15">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
@@ -18578,12 +18584,12 @@
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="15">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
@@ -18679,11 +18685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
@@ -18695,21 +18701,21 @@
     <col min="5" max="16384" width="8.75" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2" t="s">
@@ -18754,8 +18760,8 @@
       <c r="B6" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>440</v>
+      <c r="C6" s="6" t="s">
+        <v>1608</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -19178,12 +19184,12 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="2" t="s">
@@ -19270,12 +19276,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="2" t="s">
@@ -19330,12 +19336,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="2" t="s">
@@ -19378,12 +19384,12 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="2" t="s">
@@ -19408,12 +19414,12 @@
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" ht="15">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="2" t="s">
@@ -19480,12 +19486,12 @@
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="2" t="s">
@@ -19534,7 +19540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
@@ -19550,21 +19556,21 @@
     <col min="5" max="16384" width="8.75" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2" t="s">
@@ -19596,12 +19602,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2" t="s">
@@ -19719,12 +19725,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="2" t="s">
@@ -19818,12 +19824,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="2" t="s">
@@ -19936,12 +19942,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="2" t="s">
@@ -20038,12 +20044,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="2" t="s">
@@ -20058,12 +20064,12 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="2" t="s">
@@ -20120,12 +20126,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="2" t="s">
@@ -20304,7 +20310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -20320,21 +20326,21 @@
     <col min="5" max="16384" width="8.75" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2" t="s">
@@ -20521,12 +20527,12 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="2" t="s">
@@ -20697,10 +20703,10 @@
         <v>854</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="2" t="s">
@@ -20715,12 +20721,12 @@
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="2" t="s">
@@ -20837,12 +20843,12 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="2" t="s">
@@ -20897,12 +20903,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="2" t="s">
@@ -20917,12 +20923,12 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="15">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="2" t="s">
@@ -21058,11 +21064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
@@ -21073,21 +21079,21 @@
     <col min="5" max="16384" width="8.75" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>920</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -21286,12 +21292,12 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
@@ -21306,12 +21312,12 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
@@ -21498,12 +21504,12 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
@@ -21628,12 +21634,12 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
@@ -21664,12 +21670,12 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
@@ -21765,10 +21771,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432D4F3-E5C4-419C-9D83-88639AFF0619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -21780,21 +21786,21 @@
     <col min="4" max="4" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -22109,12 +22115,12 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>1137</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
@@ -22199,12 +22205,12 @@
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
@@ -22231,12 +22237,12 @@
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
@@ -22341,12 +22347,12 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
@@ -22409,12 +22415,12 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
@@ -22431,12 +22437,12 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
@@ -22531,7 +22537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49117B45-F525-42E7-914E-2286ACDE2B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -22546,21 +22552,21 @@
     <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25">
+      <c r="A1" s="10" t="s">
         <v>1218</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -22823,12 +22829,12 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
@@ -22867,12 +22873,12 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
@@ -22991,12 +22997,12 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
@@ -23041,12 +23047,12 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
@@ -23117,12 +23123,12 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
@@ -23224,21 +23230,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C51457C471D61A4992E47E7F4F2DDAB3" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="387f4b0cc14a0e0a2b338016a590dd8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b008285-4e71-4b6a-90e4-5c56a6ecff06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44254fae4218b67d10632a91aed5e8e6" ns2:_="">
     <xsd:import namespace="5b008285-4e71-4b6a-90e4-5c56a6ecff06"/>
@@ -23382,7 +23373,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B41F4A9-1AA6-48B2-B55C-8323CEAAA4CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5b008285-4e71-4b6a-90e4-5c56a6ecff06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{838B1E07-9D32-49B7-90C6-A0677DA32556}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -23398,28 +23422,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B91E2B5A-8183-4FED-A9FD-A6A90731558E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B41F4A9-1AA6-48B2-B55C-8323CEAAA4CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5b008285-4e71-4b6a-90e4-5c56a6ecff06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>